--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDFAB52-20CF-D243-A3DD-7EAFFEB24834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBC83D-D2FF-4649-A29F-BDC922967343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-2640" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
@@ -17,16 +17,17 @@
     <sheet name="second_attempt" sheetId="2" r:id="rId2"/>
     <sheet name="third_attempt" sheetId="3" r:id="rId3"/>
     <sheet name="fourth_attempt" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
+    <definedName name="Flow_merged_1" localSheetId="5">Sheet1!$A$2:$N$31</definedName>
     <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
     <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
     <definedName name="FlowORT_merged_v3" localSheetId="2">third_attempt!$A$2:$T$21</definedName>
     <definedName name="FlowORT_merged_v4" localSheetId="3">fourth_attempt!$A$2:$AL$21</definedName>
-    <definedName name="FlowORT_merged_v4" localSheetId="5">Sheet5!$A$2:$S$21</definedName>
+    <definedName name="FlowORT_merged_v4" localSheetId="4">Sheet5!$A$2:$S$21</definedName>
     <definedName name="FlowORT_merged_v4_1" localSheetId="3">fourth_attempt!$K$1:$AC$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -51,9 +52,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
-      <textFields count="12">
+  <connection id="1" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -69,13 +72,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="2" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+      <textFields count="12">
         <textField/>
         <textField/>
         <textField/>
@@ -91,12 +90,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="3" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -116,8 +112,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+  <connection id="4" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
@@ -141,8 +137,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+  <connection id="5" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
@@ -166,8 +162,33 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+  <connection id="6" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
@@ -195,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="29">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -280,6 +301,9 @@
   <si>
     <t>bnf_differring</t>
   </si>
+  <si>
+    <t>FlowOCT</t>
+  </si>
 </sst>
 </file>
 
@@ -336,27 +360,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="1" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="2" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="2" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="3" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="3" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="4" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="5" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="5" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="4" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="6" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="6" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="7" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="1" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6160,23 +6188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725AFF7F-D598-D144-A1A5-17E5B891E655}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7445,4 +7461,1401 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>625</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>-864</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>121</v>
+      </c>
+      <c r="J2">
+        <v>4.4468698501586896</v>
+      </c>
+      <c r="K2">
+        <v>-4.8630393996246903</v>
+      </c>
+      <c r="L2">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="M2">
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="N2">
+        <v>-1.5637982195845599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>625</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5213</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1798</v>
+      </c>
+      <c r="J3">
+        <v>74.126079082488999</v>
+      </c>
+      <c r="K3">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.3856</v>
+      </c>
+      <c r="M3">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.36795252225519198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>625</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>213</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>11491</v>
+      </c>
+      <c r="J4">
+        <v>235.17185783386199</v>
+      </c>
+      <c r="K4">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.3856</v>
+      </c>
+      <c r="M4">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.36795252225519198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-62</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>7544</v>
+      </c>
+      <c r="J5">
+        <v>24.701692819595301</v>
+      </c>
+      <c r="K5">
+        <v>-8.1758629377677694E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N5">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>277</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1169.99999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5620</v>
+      </c>
+      <c r="J6">
+        <v>33.745861291885298</v>
+      </c>
+      <c r="K6">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M6">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N6">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>277</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>11684</v>
+      </c>
+      <c r="J7">
+        <v>114.32020306587199</v>
+      </c>
+      <c r="K7">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M7">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N7">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-111</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>0.267576694488525</v>
+      </c>
+      <c r="K8">
+        <v>-1.2019315188762001</v>
+      </c>
+      <c r="L8">
+        <v>1.2954545454545401</v>
+      </c>
+      <c r="M8">
+        <v>0.84090909090909005</v>
+      </c>
+      <c r="N8">
+        <v>-0.37037037037037002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1110.99999999999</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2133</v>
+      </c>
+      <c r="J9">
+        <v>2.7174580097198402</v>
+      </c>
+      <c r="K9">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L9">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M9">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N9">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>54.999996000000003</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2520</v>
+      </c>
+      <c r="J10">
+        <v>5.05781698226928</v>
+      </c>
+      <c r="K10">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L10">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M10">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N10">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>-7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>322</v>
+      </c>
+      <c r="J11">
+        <v>1.0001893043518</v>
+      </c>
+      <c r="K11">
+        <v>0.87873357228195803</v>
+      </c>
+      <c r="L11">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>232</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>935</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>193</v>
+      </c>
+      <c r="J12">
+        <v>1.6961710453033401</v>
+      </c>
+      <c r="K12">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L12">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>789</v>
+      </c>
+      <c r="J13">
+        <v>5.1695299148559499</v>
+      </c>
+      <c r="K13">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L13">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>-55</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>9935</v>
+      </c>
+      <c r="J14">
+        <v>12.729445934295599</v>
+      </c>
+      <c r="K14">
+        <v>-0.259433962264149</v>
+      </c>
+      <c r="L14">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M14">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>267</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1123</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6497</v>
+      </c>
+      <c r="J15">
+        <v>16.496693849563599</v>
+      </c>
+      <c r="K15">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L15">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M15">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>267</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3600</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>54.999999672266597</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.0909224614273496E-9</v>
+      </c>
+      <c r="I16">
+        <v>10254</v>
+      </c>
+      <c r="J16">
+        <v>59.533364057540801</v>
+      </c>
+      <c r="K16">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L16">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M16">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>625</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3600</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>-864</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20408</v>
+      </c>
+      <c r="J17">
+        <v>506.88257384300198</v>
+      </c>
+      <c r="K17">
+        <v>-4.8630393996246903</v>
+      </c>
+      <c r="L17">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="M17">
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="N17">
+        <v>-1.5637982195845599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>625</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3600</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>15183.9999999999</v>
+      </c>
+      <c r="H18">
+        <v>8.5616438355876998E-2</v>
+      </c>
+      <c r="I18">
+        <v>198907</v>
+      </c>
+      <c r="J18">
+        <v>3600.7476761340999</v>
+      </c>
+      <c r="K18">
+        <v>7.9828538670024901E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.36159999999999098</v>
+      </c>
+      <c r="M18">
+        <v>0.29440000000000799</v>
+      </c>
+      <c r="N18">
+        <v>0.45400593471808398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>625</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3600</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>191.99999852941099</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>19768</v>
+      </c>
+      <c r="J19">
+        <v>3600.6980011463102</v>
+      </c>
+      <c r="K19">
+        <v>1.4683656451949001E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="N19">
+        <v>0.43026706231453998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>277</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3600</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>-54</v>
+      </c>
+      <c r="H20">
+        <v>72.222222222221902</v>
+      </c>
+      <c r="I20">
+        <v>801826</v>
+      </c>
+      <c r="J20">
+        <v>3601.2127518653801</v>
+      </c>
+      <c r="K20">
+        <v>5.7823129251699898E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="M20">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="N20">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>277</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3600</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>3378</v>
+      </c>
+      <c r="H21">
+        <v>1.1943087625814</v>
+      </c>
+      <c r="I21">
+        <v>351845</v>
+      </c>
+      <c r="J21">
+        <v>3600.4451830387102</v>
+      </c>
+      <c r="K21">
+        <v>5.7823129251700703E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="M21">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="N21">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>277</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3600</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>54.999997944148703</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>42777</v>
+      </c>
+      <c r="J22">
+        <v>3600.4791548252101</v>
+      </c>
+      <c r="K22">
+        <v>4.0375409423028502E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="M22">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="N22">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3600</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>-111</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>7269</v>
+      </c>
+      <c r="J23">
+        <v>3.7664110660552899</v>
+      </c>
+      <c r="K23">
+        <v>-1.2019315188762001</v>
+      </c>
+      <c r="L23">
+        <v>1.2954545454545401</v>
+      </c>
+      <c r="M23">
+        <v>0.84090909090909005</v>
+      </c>
+      <c r="N23">
+        <v>-0.37037037037037002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>132</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3600</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3206</v>
+      </c>
+      <c r="H24">
+        <v>8.3177375753577393E-3</v>
+      </c>
+      <c r="I24">
+        <v>61513</v>
+      </c>
+      <c r="J24">
+        <v>114.617954969406</v>
+      </c>
+      <c r="K24">
+        <v>0.43342112964588803</v>
+      </c>
+      <c r="L24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M24">
+        <v>0.28787878787878701</v>
+      </c>
+      <c r="N24">
+        <v>0.530864197530864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>132</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3600</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>37.999998756056698</v>
+      </c>
+      <c r="H25">
+        <v>65.664159277006803</v>
+      </c>
+      <c r="I25">
+        <v>626725</v>
+      </c>
+      <c r="J25">
+        <v>3600.1148979663799</v>
+      </c>
+      <c r="K25">
+        <v>0.45917474510702599</v>
+      </c>
+      <c r="L25">
+        <v>0.31818180027019499</v>
+      </c>
+      <c r="M25">
+        <v>0.28787879683459999</v>
+      </c>
+      <c r="N25">
+        <v>0.53086418293620596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>232</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3600</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>-5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>186445</v>
+      </c>
+      <c r="J26">
+        <v>354.60639691352799</v>
+      </c>
+      <c r="K26">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L26">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M26">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.95370370370370305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>232</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3600</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2785</v>
+      </c>
+      <c r="H27">
+        <v>9.79272074436849E-3</v>
+      </c>
+      <c r="I27">
+        <v>13386</v>
+      </c>
+      <c r="J27">
+        <v>155.03478193282999</v>
+      </c>
+      <c r="K27">
+        <v>-0.64575866188769304</v>
+      </c>
+      <c r="L27">
+        <v>0.409482758620689</v>
+      </c>
+      <c r="M27">
+        <v>0.409482758620689</v>
+      </c>
+      <c r="N27">
+        <v>0.12037037037037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>232</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3600</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>4.9999976753816604</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>76925</v>
+      </c>
+      <c r="J28">
+        <v>3600.2755441665599</v>
+      </c>
+      <c r="K28">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L28">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M28">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.95370370370370305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>267</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3600</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>-48</v>
+      </c>
+      <c r="H29">
+        <v>9.8502758076139205E-3</v>
+      </c>
+      <c r="I29">
+        <v>334698</v>
+      </c>
+      <c r="J29">
+        <v>3373.2225041389402</v>
+      </c>
+      <c r="K29">
+        <v>-9.9142367066894194E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M29">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N29">
+        <v>0.12727272727272701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>267</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3600</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>3252</v>
+      </c>
+      <c r="H30">
+        <v>4.6125461254444701E-2</v>
+      </c>
+      <c r="I30">
+        <v>749717</v>
+      </c>
+      <c r="J30">
+        <v>3600.3199172019899</v>
+      </c>
+      <c r="K30">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L30">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M30">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N30">
+        <v>0.12727272727272701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>267</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3600</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>31.871880981678899</v>
+      </c>
+      <c r="I31">
+        <v>47814</v>
+      </c>
+      <c r="J31">
+        <v>3600.4014861583701</v>
+      </c>
+      <c r="K31">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M31">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N31">
+        <v>0.12727272727272701</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S31">
+    <sortCondition ref="D2:D31"/>
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBC83D-D2FF-4649-A29F-BDC922967343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E9E81-77C5-BF4E-9936-B02F0012FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2640" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="6" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,22 @@
     <sheet name="fourth_attempt" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
+    <definedName name="balance_scale_enc_reg.csv_FlowOCT_d_2_t_3600" localSheetId="6">Sheet2!$A$11:$P$11</definedName>
+    <definedName name="balance_scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" localSheetId="6">Sheet2!$A$12:$P$12</definedName>
+    <definedName name="balance_scale_enc_reg.csv_FlowORT_d_2_t_3600" localSheetId="6">Sheet2!$A$13:$P$13</definedName>
+    <definedName name="breast" localSheetId="6">Sheet2!$A$14:$P$16</definedName>
+    <definedName name="breast_1" localSheetId="6">Sheet2!$A$17:$P$19</definedName>
+    <definedName name="breast_2" localSheetId="6">Sheet2!$A$20:$P$22</definedName>
+    <definedName name="breast_3" localSheetId="6">Sheet2!$A$23:$P$25</definedName>
+    <definedName name="breast_4" localSheetId="6">Sheet2!$A$26:$P$31</definedName>
+    <definedName name="breast_5" localSheetId="6">Sheet2!$A$2:$P$4</definedName>
+    <definedName name="breast_cancer_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$8:$P$8</definedName>
+    <definedName name="breast_cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$9:$P$9</definedName>
+    <definedName name="breast_cancer_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$10:$P$10</definedName>
     <definedName name="Flow_merged_1" localSheetId="5">Sheet1!$A$2:$N$31</definedName>
     <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
     <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
@@ -29,8 +42,11 @@
     <definedName name="FlowORT_merged_v4" localSheetId="3">fourth_attempt!$A$2:$AL$21</definedName>
     <definedName name="FlowORT_merged_v4" localSheetId="4">Sheet5!$A$2:$S$21</definedName>
     <definedName name="FlowORT_merged_v4_1" localSheetId="3">fourth_attempt!$K$1:$AC$20</definedName>
+    <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
+    <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
+    <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +68,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
-      <textFields count="14">
+  <connection id="1" xr16:uid="{7243C251-59B3-8941-B8BB-AD8DD72F9FF7}" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -72,9 +90,13 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
-      <textFields count="12">
+  <connection id="2" xr16:uid="{E6D70863-09A0-B545-BD8D-64F255706A8A}" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -90,8 +112,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+  <connection id="3" xr16:uid="{2E57F949-879E-614C-BFEE-9E61347D1325}" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -112,12 +134,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="4" xr16:uid="{F65C0F3E-D4D7-7D42-82CB-3AD001CBE092}" name="breast" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -137,12 +156,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="5" xr16:uid="{FC68C437-7058-CF40-95DC-9CEBE1E26C18}" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -162,12 +178,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="6" xr16:uid="{CFD14039-B687-1E4E-91FF-BD7C04754D8D}" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -187,12 +200,345 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="7" xr16:uid="{ADF275DB-B646-6B4D-ABD6-509CA4FD171C}" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" xr16:uid="{A595F390-AACF-8B43-8FD5-1DB03E01935A}" name="breast1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" xr16:uid="{C7824518-AEF9-A742-B58C-7C616CF91256}" name="breast2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" xr16:uid="{216439B1-826D-D744-8158-22917DC96FC9}" name="breast3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" xr16:uid="{01E7CFCD-C604-554C-8189-F72EEFDF0B9E}" name="breast4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" xr16:uid="{D1BB8CFE-E970-F14F-9F99-45220841EEED}" name="breast5" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="20" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="21" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -216,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="37">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -304,6 +650,30 @@
   <si>
     <t>FlowOCT</t>
   </si>
+  <si>
+    <t>balance-scale_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>obj orig</t>
+  </si>
+  <si>
+    <t>mip gap orig</t>
+  </si>
+  <si>
+    <t>spect_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>breast-cancer_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>hayes-roth_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>house-votes-84_enc_reg.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -360,31 +730,91 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="2" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="14" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="3" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="15" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="22" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="21" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="20" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="4" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="16" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="5" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="18" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="6" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="17" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="7" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="19" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="1" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="13" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7467,8 +7897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8858,4 +9288,1589 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBAE7A2-5A05-0548-AADD-A382B3B345F4}">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>625</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>-106.5</v>
+      </c>
+      <c r="H2">
+        <v>106.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>327</v>
+      </c>
+      <c r="L2">
+        <v>17.659785985946598</v>
+      </c>
+      <c r="M2">
+        <v>1.87552115905886E-2</v>
+      </c>
+      <c r="N2">
+        <v>9.64E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.1704</v>
+      </c>
+      <c r="P2">
+        <v>0.36795252225519198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>625</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2606.5</v>
+      </c>
+      <c r="H3">
+        <v>106.500000000006</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6.40489226600653E-12</v>
+      </c>
+      <c r="K3">
+        <v>1283</v>
+      </c>
+      <c r="L3">
+        <v>60.064375162124598</v>
+      </c>
+      <c r="M3">
+        <v>1.8755211590540201E-2</v>
+      </c>
+      <c r="N3">
+        <v>9.6400000000003594E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.17040000000000999</v>
+      </c>
+      <c r="P3">
+        <v>0.36795252225515201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>625</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>106.5</v>
+      </c>
+      <c r="H4">
+        <v>106.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>11775</v>
+      </c>
+      <c r="L4">
+        <v>361.48862576484601</v>
+      </c>
+      <c r="M4">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.64E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.1704</v>
+      </c>
+      <c r="P4">
+        <v>0.36795252225519198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-62</v>
+      </c>
+      <c r="H5">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7544</v>
+      </c>
+      <c r="L5">
+        <v>25.6163280010223</v>
+      </c>
+      <c r="M5">
+        <v>-8.1758629377677694E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="O5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="P5">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>277</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1169.99999999999</v>
+      </c>
+      <c r="H6">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5620</v>
+      </c>
+      <c r="L6">
+        <v>34.106957912444997</v>
+      </c>
+      <c r="M6">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="O6">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="P6">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>277</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>11684</v>
+      </c>
+      <c r="L7">
+        <v>113.37515997886599</v>
+      </c>
+      <c r="M7">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="O7">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="P7">
+        <v>0.234567901234567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-27.5</v>
+      </c>
+      <c r="H8">
+        <v>27.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1127</v>
+      </c>
+      <c r="L8">
+        <v>0.92386889457702603</v>
+      </c>
+      <c r="M8">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="N8">
+        <v>0.115530303030303</v>
+      </c>
+      <c r="O8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="P8">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>555.5</v>
+      </c>
+      <c r="H9">
+        <v>27.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2183</v>
+      </c>
+      <c r="L9">
+        <v>3.2760336399078298</v>
+      </c>
+      <c r="M9">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="N9">
+        <v>0.115530303030303</v>
+      </c>
+      <c r="O9">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="P9">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>27.5</v>
+      </c>
+      <c r="H10">
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3910</v>
+      </c>
+      <c r="L10">
+        <v>8.6709392070770193</v>
+      </c>
+      <c r="M10">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="N10">
+        <v>0.115530303030303</v>
+      </c>
+      <c r="O10">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="P10">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>-7</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>322</v>
+      </c>
+      <c r="L11">
+        <v>0.97848892211913996</v>
+      </c>
+      <c r="M11">
+        <v>0.87873357228195803</v>
+      </c>
+      <c r="N11">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="O11">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>232</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>935</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>193</v>
+      </c>
+      <c r="L12">
+        <v>1.4531280994415201</v>
+      </c>
+      <c r="M12">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="N12">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="O12">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>789</v>
+      </c>
+      <c r="L13">
+        <v>4.7426559925079301</v>
+      </c>
+      <c r="M13">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="N13">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="O13">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="P13">
+        <v>0.93518518518518501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>-55</v>
+      </c>
+      <c r="H14">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6.00969711548922E-7</v>
+      </c>
+      <c r="K14">
+        <v>9935</v>
+      </c>
+      <c r="L14">
+        <v>12.994050979614199</v>
+      </c>
+      <c r="M14">
+        <v>-0.259433962264149</v>
+      </c>
+      <c r="N14">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="O14">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>267</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1123</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6.00969711548922E-7</v>
+      </c>
+      <c r="K15">
+        <v>6497</v>
+      </c>
+      <c r="L15">
+        <v>17.460736989974901</v>
+      </c>
+      <c r="M15">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="N15">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="O15">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>267</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3600</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>54.999999672266597</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.0909224614273496E-9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6.00969711548922E-7</v>
+      </c>
+      <c r="K16">
+        <v>10254</v>
+      </c>
+      <c r="L16">
+        <v>58.632992744445801</v>
+      </c>
+      <c r="M16">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="N16">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="O16">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>625</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3600</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>-92</v>
+      </c>
+      <c r="H17">
+        <v>92</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>145075</v>
+      </c>
+      <c r="L17">
+        <v>915.88064408302296</v>
+      </c>
+      <c r="M17">
+        <v>7.9828538670012605E-2</v>
+      </c>
+      <c r="N17">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.1472</v>
+      </c>
+      <c r="P17">
+        <v>0.45400593471810002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>625</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3600</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>7591.99999999999</v>
+      </c>
+      <c r="H18">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>3.9515279241198797E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>252494</v>
+      </c>
+      <c r="L18">
+        <v>3600.6484949588698</v>
+      </c>
+      <c r="M18">
+        <v>7.9828538670002003E-2</v>
+      </c>
+      <c r="N18">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.1472</v>
+      </c>
+      <c r="P18">
+        <v>0.45400593471810002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>625</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3600</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>93.999998500000004</v>
+      </c>
+      <c r="H19">
+        <v>94</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>25448</v>
+      </c>
+      <c r="L19">
+        <v>3600.6328189372998</v>
+      </c>
+      <c r="M19">
+        <v>6.3542318115488702E-2</v>
+      </c>
+      <c r="N19">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.44213649851631998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>277</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3600</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>-54</v>
+      </c>
+      <c r="H20">
+        <v>54</v>
+      </c>
+      <c r="I20">
+        <v>72.222222222221802</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>822506</v>
+      </c>
+      <c r="L20">
+        <v>3601.0202760696402</v>
+      </c>
+      <c r="M20">
+        <v>5.7823129251699898E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="O20">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="P20">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>277</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3600</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>3378</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>1.2729425695677901</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>144675</v>
+      </c>
+      <c r="L21">
+        <v>3600.4576241969999</v>
+      </c>
+      <c r="M21">
+        <v>5.7823129251700703E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="O21">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="P21">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>277</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3600</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>20633</v>
+      </c>
+      <c r="L22">
+        <v>3600.4579331874802</v>
+      </c>
+      <c r="M22">
+        <v>4.0375409423028502E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="O22">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="P22">
+        <v>0.32098765432098703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3600</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>-19</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.1212250721361097E-3</v>
+      </c>
+      <c r="K23">
+        <v>106929</v>
+      </c>
+      <c r="L23">
+        <v>54.983767032623199</v>
+      </c>
+      <c r="M23">
+        <v>0.45917471466198401</v>
+      </c>
+      <c r="N23">
+        <v>7.9545454545454503E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.14393939393939301</v>
+      </c>
+      <c r="P23">
+        <v>0.530864197530864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>132</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3600</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1603</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>8.9118616879329399E-3</v>
+      </c>
+      <c r="J24">
+        <v>7.1212250721361097E-3</v>
+      </c>
+      <c r="K24">
+        <v>103458</v>
+      </c>
+      <c r="L24">
+        <v>122.425145864486</v>
+      </c>
+      <c r="M24">
+        <v>0.43342112964588803</v>
+      </c>
+      <c r="N24">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.14393939393939301</v>
+      </c>
+      <c r="P24">
+        <v>0.530864197530864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>132</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3600</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>7.1207179897812998E-3</v>
+      </c>
+      <c r="J25">
+        <v>7.1212250721361097E-3</v>
+      </c>
+      <c r="K25">
+        <v>494939</v>
+      </c>
+      <c r="L25">
+        <v>1952.8507118225</v>
+      </c>
+      <c r="M25">
+        <v>0.45917471466198401</v>
+      </c>
+      <c r="N25">
+        <v>7.9545454545454503E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.14393939393939301</v>
+      </c>
+      <c r="P25">
+        <v>0.530864197530864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>232</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3600</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>-5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>186445</v>
+      </c>
+      <c r="L26">
+        <v>351.54064297676001</v>
+      </c>
+      <c r="M26">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="N26">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.95370370370370305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>232</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3600</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2789</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>9.7786759673303501E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>46249</v>
+      </c>
+      <c r="L27">
+        <v>164.74345397949199</v>
+      </c>
+      <c r="M27">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="N27">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="O27">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.95370370370370305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>232</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3600</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>4.9999976753816604</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>77791</v>
+      </c>
+      <c r="L28">
+        <v>3600.19359016418</v>
+      </c>
+      <c r="M28">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="N28">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="O28">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.95370370370370305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>267</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3600</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>-48</v>
+      </c>
+      <c r="H29">
+        <v>48</v>
+      </c>
+      <c r="I29">
+        <v>9.8502758076139205E-3</v>
+      </c>
+      <c r="J29">
+        <v>85.407725321888407</v>
+      </c>
+      <c r="K29">
+        <v>334698</v>
+      </c>
+      <c r="L29">
+        <v>3308.4788780212398</v>
+      </c>
+      <c r="M29">
+        <v>-9.9142367066894194E-2</v>
+      </c>
+      <c r="N29">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="O29">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="P29">
+        <v>0.12727272727272701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>267</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3600</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>3252</v>
+      </c>
+      <c r="H30">
+        <v>48</v>
+      </c>
+      <c r="I30">
+        <v>0.14955831376512699</v>
+      </c>
+      <c r="J30">
+        <v>85.407725321888407</v>
+      </c>
+      <c r="K30">
+        <v>304732</v>
+      </c>
+      <c r="L30">
+        <v>3604.9042329788199</v>
+      </c>
+      <c r="M30">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="O30">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="P30">
+        <v>0.12727272727272701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>267</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3600</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>48.999993066663897</v>
+      </c>
+      <c r="H31">
+        <v>49</v>
+      </c>
+      <c r="I31">
+        <v>47.165525403917201</v>
+      </c>
+      <c r="J31">
+        <v>89.270386266094405</v>
+      </c>
+      <c r="K31">
+        <v>17536</v>
+      </c>
+      <c r="L31">
+        <v>3600.3638520240702</v>
+      </c>
+      <c r="M31">
+        <v>-0.122041166380788</v>
+      </c>
+      <c r="N31">
+        <v>0.183520599250936</v>
+      </c>
+      <c r="O31">
+        <v>0.183520599250936</v>
+      </c>
+      <c r="P31">
+        <v>0.109090909090909</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P31">
+    <sortCondition ref="D2:D31"/>
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E9E81-77C5-BF4E-9936-B02F0012FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4109C3D-AB1A-CC42-B160-098B461D0AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="6" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="38360" yWindow="-120" windowWidth="28800" windowHeight="16020" activeTab="7" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
+    <sheet name="cross" sheetId="10" r:id="rId8"/>
+    <sheet name="linear" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -35,6 +37,10 @@
     <definedName name="breast_cancer_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$8:$P$8</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$9:$P$9</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$10:$P$10</definedName>
+    <definedName name="cross_val_results" localSheetId="7">cross!$A$5:$J$13</definedName>
+    <definedName name="cross_val_results_1" localSheetId="7">cross!$A$14:$J$19</definedName>
+    <definedName name="cross_val_results_2" localSheetId="7">cross!$A$20:$J$28</definedName>
+    <definedName name="cross_val_results_3" localSheetId="7">cross!$A$29:$J$31</definedName>
     <definedName name="Flow_merged_1" localSheetId="5">Sheet1!$A$2:$N$31</definedName>
     <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
     <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
@@ -42,6 +48,7 @@
     <definedName name="FlowORT_merged_v4" localSheetId="3">fourth_attempt!$A$2:$AL$21</definedName>
     <definedName name="FlowORT_merged_v4" localSheetId="4">Sheet5!$A$2:$S$21</definedName>
     <definedName name="FlowORT_merged_v4_1" localSheetId="3">fourth_attempt!$K$1:$AC$20</definedName>
+    <definedName name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" localSheetId="7">cross!$A$2:$J$4</definedName>
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
@@ -69,7 +76,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{7243C251-59B3-8941-B8BB-AD8DD72F9FF7}" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -91,7 +98,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{E6D70863-09A0-B545-BD8D-64F255706A8A}" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -113,7 +120,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{2E57F949-879E-614C-BFEE-9E61347D1325}" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -135,7 +142,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{F65C0F3E-D4D7-7D42-82CB-3AD001CBE092}" name="breast" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -157,7 +164,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{FC68C437-7058-CF40-95DC-9CEBE1E26C18}" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -179,7 +186,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{CFD14039-B687-1E4E-91FF-BD7C04754D8D}" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -201,7 +208,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{ADF275DB-B646-6B4D-ABD6-509CA4FD171C}" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -223,7 +230,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{A595F390-AACF-8B43-8FD5-1DB03E01935A}" name="breast1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -245,7 +252,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{C7824518-AEF9-A742-B58C-7C616CF91256}" name="breast2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -267,7 +274,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{216439B1-826D-D744-8158-22917DC96FC9}" name="breast3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -289,7 +296,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{01E7CFCD-C604-554C-8189-F72EEFDF0B9E}" name="breast4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -311,7 +318,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{D1BB8CFE-E970-F14F-9F99-45220841EEED}" name="breast5" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -332,12 +339,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
-      <textFields count="14">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="13" xr16:uid="{809035BB-F182-7C4C-97DB-EDD3182EA65A}" name="cross_val_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -352,10 +356,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
-      <textFields count="12">
-        <textField/>
+  <connection id="14" xr16:uid="{4055D2B3-3401-2B42-9CD3-BCABC82F641F}" name="cross_val_results1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -370,14 +373,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="15" xr16:uid="{3B4318E4-DA49-CC4D-A4CF-CC6A972C6190}" name="cross_val_results2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -392,17 +390,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="16" xr16:uid="{9C42C2E9-F5D8-C347-8362-3D0C3F8B1D6A}" name="cross_val_results3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -417,14 +407,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="17" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
+      <textFields count="14">
         <textField/>
         <textField/>
         <textField/>
@@ -442,16 +427,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="18" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+      <textFields count="12">
         <textField/>
         <textField/>
         <textField/>
@@ -467,12 +445,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="19" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -492,9 +467,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
+  <connection id="20" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -514,9 +492,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
+  <connection id="21" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -536,8 +517,119 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+  <connection id="22" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" xr16:uid="{E24999EF-7688-474F-AF38-65C2FA472766}" name="spect_enc_reg.csv__d_2_t_3600_cross_validation" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="26" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="27" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -562,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -674,6 +766,33 @@
   <si>
     <t>house-votes-84_enc_reg.csv</t>
   </si>
+  <si>
+    <t>k_fold</t>
+  </si>
+  <si>
+    <t>mip orig avg</t>
+  </si>
+  <si>
+    <t>mae test</t>
+  </si>
+  <si>
+    <t>mae train</t>
+  </si>
+  <si>
+    <t>time resolution avg</t>
+  </si>
+  <si>
+    <t>1-r2_lad test</t>
+  </si>
+  <si>
+    <t>1-r2_lad train</t>
+  </si>
+  <si>
+    <t>monk1_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>optimum not reached</t>
+  </si>
 </sst>
 </file>
 
@@ -688,12 +807,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -708,10 +833,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,91 +860,111 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="14" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="18" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="19" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="23" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="17" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="15" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="22" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="21" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="20" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="16" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="18" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="17" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="19" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="13" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7897,8 +8047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9294,8 +9444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBAE7A2-5A05-0548-AADD-A382B3B345F4}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10873,4 +11023,1133 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74129A16-DD09-6B42-9EB8-E141E135759B}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.0568930257351798E-15</v>
+      </c>
+      <c r="F2">
+        <v>23.6719374656677</v>
+      </c>
+      <c r="G2">
+        <v>0.169154820072944</v>
+      </c>
+      <c r="H2">
+        <v>0.37258764545206202</v>
+      </c>
+      <c r="I2">
+        <v>0.181541218637992</v>
+      </c>
+      <c r="J2">
+        <v>0.30791729086525499</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.49688162714056E-11</v>
+      </c>
+      <c r="F3">
+        <v>82.3637865543365</v>
+      </c>
+      <c r="G3">
+        <v>0.169154820072969</v>
+      </c>
+      <c r="H3">
+        <v>0.37258764545196799</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.181541218638025</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.30791729086512998</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.0568930257351798E-15</v>
+      </c>
+      <c r="F4">
+        <v>490.205153036117</v>
+      </c>
+      <c r="G4">
+        <v>0.169154820072944</v>
+      </c>
+      <c r="H4">
+        <v>0.37258764545206102</v>
+      </c>
+      <c r="I4">
+        <v>0.181541218637992</v>
+      </c>
+      <c r="J4">
+        <v>0.30791729086525499</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F5">
+        <v>18.730492591857899</v>
+      </c>
+      <c r="G5">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H5">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I5">
+        <v>0.26344155844155798</v>
+      </c>
+      <c r="J5">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F6">
+        <v>34.557816219329801</v>
+      </c>
+      <c r="G6">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H6">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.24883116883116799</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.15909090909090901</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F7">
+        <v>76.564423894882196</v>
+      </c>
+      <c r="G7">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H7">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I7">
+        <v>0.26344155844155798</v>
+      </c>
+      <c r="J7">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.38353683695285E-15</v>
+      </c>
+      <c r="F8">
+        <v>0.75639300346374505</v>
+      </c>
+      <c r="G8">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H8">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I8">
+        <v>0.28019943019943</v>
+      </c>
+      <c r="J8">
+        <v>8.3939014202171994E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.25196967124938</v>
+      </c>
+      <c r="G9">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H9">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.265384615384615</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.133939014202172</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5.73833475112915</v>
+      </c>
+      <c r="G10">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H10">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I10">
+        <v>0.28019943019943</v>
+      </c>
+      <c r="J10">
+        <v>8.3939014202172105E-2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.74219007492065403</v>
+      </c>
+      <c r="G11">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I11">
+        <v>4.3200740055504103E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.90310321257689596</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.969389343261718</v>
+      </c>
+      <c r="G12">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4.3200740055504103E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.90310321257689596</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4.3078411579131997</v>
+      </c>
+      <c r="G13">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I13">
+        <v>5.17113783533764E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.88405559352927698</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.65801777839660602</v>
+      </c>
+      <c r="G14">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H14">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I14">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.39555555555555499</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.88389029502868</v>
+      </c>
+      <c r="G15">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H15">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.45111111111111102</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.5300097465515101</v>
+      </c>
+      <c r="G16">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H16">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.45111111111111102</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F17">
+        <v>9.00663514137268</v>
+      </c>
+      <c r="G17">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H17">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I17">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J17">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F18">
+        <v>11.980052947998001</v>
+      </c>
+      <c r="G18">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H18">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F19">
+        <v>35.744362211227397</v>
+      </c>
+      <c r="G19">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H19">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I19">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J19">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>27.369954794962801</v>
+      </c>
+      <c r="F20">
+        <v>22.295590400695801</v>
+      </c>
+      <c r="G20">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H20">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I20">
+        <v>0.231339031339031</v>
+      </c>
+      <c r="J20">
+        <v>0.155873015873015</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>27.369954794962801</v>
+      </c>
+      <c r="F21">
+        <v>46.942136669158899</v>
+      </c>
+      <c r="G21">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H21">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I21">
+        <v>0.215954415954415</v>
+      </c>
+      <c r="J21">
+        <v>0.22837301587301501</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>11.557089180277501</v>
+      </c>
+      <c r="F22">
+        <v>2210.5839756011901</v>
+      </c>
+      <c r="G22">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H22">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I22">
+        <v>0.22706552706552699</v>
+      </c>
+      <c r="J22">
+        <v>0.18869047619047599</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>751.72413793103397</v>
+      </c>
+      <c r="F23">
+        <v>313.29339551925602</v>
+      </c>
+      <c r="G23">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I23">
+        <v>6.0407030527289497E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.85281979458449997</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>751.72413793103397</v>
+      </c>
+      <c r="F24">
+        <v>164.99453411102201</v>
+      </c>
+      <c r="G24">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I24">
+        <v>5.6059204440333001E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.86393090569561104</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>81.586397713620798</v>
+      </c>
+      <c r="F25">
+        <v>3600.2182275772002</v>
+      </c>
+      <c r="G25">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I25">
+        <v>6.0407030527289497E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.85281979458449997</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>33.579158527608101</v>
+      </c>
+      <c r="F26">
+        <v>1758.0019995689299</v>
+      </c>
+      <c r="G26">
+        <v>0.17602562414988299</v>
+      </c>
+      <c r="H26">
+        <v>0.14438353636028001</v>
+      </c>
+      <c r="I26">
+        <v>0.213417190775681</v>
+      </c>
+      <c r="J26">
+        <v>-8.74725274725274E-2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>33.579158527608101</v>
+      </c>
+      <c r="F27">
+        <v>1795.04660406112</v>
+      </c>
+      <c r="G27">
+        <v>0.17602562414988299</v>
+      </c>
+      <c r="H27">
+        <v>0.14438353636028001</v>
+      </c>
+      <c r="I27">
+        <v>0.220824598183088</v>
+      </c>
+      <c r="J27">
+        <v>-0.14461538461538401</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>24.989074795935899</v>
+      </c>
+      <c r="F28">
+        <v>3600.3230673313101</v>
+      </c>
+      <c r="G28">
+        <v>0.176025635780205</v>
+      </c>
+      <c r="H28">
+        <v>0.14438347710102101</v>
+      </c>
+      <c r="I28">
+        <v>0.22082460992312999</v>
+      </c>
+      <c r="J28">
+        <v>-0.14461543247863201</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F29">
+        <v>3601.9170865535698</v>
+      </c>
+      <c r="G29">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="H29">
+        <v>0.36796590995825001</v>
+      </c>
+      <c r="I29">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="J29">
+        <v>7.1176939003025894E-2</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>3600.7618412494598</v>
+      </c>
+      <c r="G30">
+        <v>0.18773797220167401</v>
+      </c>
+      <c r="H30">
+        <v>0.35634326671174898</v>
+      </c>
+      <c r="I30">
+        <v>0.27084415504258702</v>
+      </c>
+      <c r="J30">
+        <v>2.9147957535356199E-2</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F31">
+        <v>3601.38449277877</v>
+      </c>
+      <c r="G31">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="H31">
+        <v>0.36855338625559098</v>
+      </c>
+      <c r="I31">
+        <v>0.263636363636363</v>
+      </c>
+      <c r="J31">
+        <v>4.2481286829112903E-2</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+    <sortCondition ref="C2:C28"/>
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FBB6E-6BB4-FE41-A4AE-44459054AF2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4109C3D-AB1A-CC42-B160-098B461D0AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDBE5A9-FC03-7E4A-AC4F-6106D5B0F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38360" yWindow="-120" windowWidth="28800" windowHeight="16020" activeTab="7" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="28800" windowHeight="16020" activeTab="9" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
     <sheet name="cross" sheetId="10" r:id="rId8"/>
     <sheet name="linear" sheetId="11" r:id="rId9"/>
+    <sheet name="less_constra" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -52,6 +53,9 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
+    <definedName name="temp_results_1" localSheetId="9">less_constra!$A$2:$J$9</definedName>
+    <definedName name="temp_results_2" localSheetId="9">less_constra!$A$10:$J$17</definedName>
+    <definedName name="temp_results_3" localSheetId="9">less_constra!$A$18:$J$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -340,7 +344,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{809035BB-F182-7C4C-97DB-EDD3182EA65A}" name="cross_val_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -357,7 +361,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{4055D2B3-3401-2B42-9CD3-BCABC82F641F}" name="cross_val_results1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -374,7 +378,7 @@
     </textPr>
   </connection>
   <connection id="15" xr16:uid="{3B4318E4-DA49-CC4D-A4CF-CC6A972C6190}" name="cross_val_results2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -391,7 +395,7 @@
     </textPr>
   </connection>
   <connection id="16" xr16:uid="{9C42C2E9-F5D8-C347-8362-3D0C3F8B1D6A}" name="cross_val_results3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -568,7 +572,7 @@
     </textPr>
   </connection>
   <connection id="24" xr16:uid="{E24999EF-7688-474F-AF38-65C2FA472766}" name="spect_enc_reg.csv__d_2_t_3600_cross_validation" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -637,6 +641,54 @@
         <textField/>
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="28" xr16:uid="{C57512E9-C8E8-4949-B49A-4B8B0C8735CF}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="29" xr16:uid="{BD0AB721-AD35-604D-99EE-02B53125565A}" name="temp_results1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" tab="0" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="30" xr16:uid="{FB983B41-C05C-D04C-9AF8-2E5EA3FF7C9F}" name="temp_results2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" tab="0" comma="1">
+      <textFields count="10">
         <textField/>
         <textField/>
         <textField/>
@@ -654,7 +706,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="47">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -793,6 +845,9 @@
   <si>
     <t>optimum not reached</t>
   </si>
+  <si>
+    <t>FlowORT_less_constraints</t>
+  </si>
 </sst>
 </file>
 
@@ -833,14 +888,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -864,43 +915,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,47 +959,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_3" connectionId="30" xr16:uid="{A0D6A27C-C8DB-7A4A-94E4-EA94F22EEF5C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_2" connectionId="29" xr16:uid="{4614975C-0310-C24C-AA9E-FC4AC3B1B759}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_1" connectionId="28" xr16:uid="{C3CCA72A-CBAD-3342-9282-C2F442D0AB99}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,11 +1023,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,6 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5E881-36B0-7E42-B762-8BFB6E632CAE}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2028,8 +2092,709 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5234FBEC-333B-DE49-A108-23E3DCF28C20}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="F2">
+        <v>0.86331892013549805</v>
+      </c>
+      <c r="G2">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I2">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4.1507600784301699</v>
+      </c>
+      <c r="G3">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I3">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.75196104049682599</v>
+      </c>
+      <c r="G4">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I4">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.68001413345336903</v>
+      </c>
+      <c r="G5">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I5">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2.25873141288757</v>
+      </c>
+      <c r="G6">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H6">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I6">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J6">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6.6649856567382804</v>
+      </c>
+      <c r="G7">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H7">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I7">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J7">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="F8">
+        <v>0.66391329765319795</v>
+      </c>
+      <c r="G8">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H8">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I8">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J8">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.07915717915683E-14</v>
+      </c>
+      <c r="F9">
+        <v>0.615616178512573</v>
+      </c>
+      <c r="G9">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H9">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I9">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J9">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.8118800163269</v>
+      </c>
+      <c r="G10">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H10">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I10">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J10">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.4300077915191602</v>
+      </c>
+      <c r="G11">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H11">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I11">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J11">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.59308018684387198</v>
+      </c>
+      <c r="G12">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H12">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I12">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J12">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.542861604690551</v>
+      </c>
+      <c r="G13">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H13">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I13">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J13">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>34.204917812347396</v>
+      </c>
+      <c r="G14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H14">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I14">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J14">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>81.002533388137806</v>
+      </c>
+      <c r="G15">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H15">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I15">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J15">
+        <v>7.8214285714285695E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>18.0424410820007</v>
+      </c>
+      <c r="G16">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H16">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I16">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J16">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>10.2114654541015</v>
+      </c>
+      <c r="G17">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H17">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I17">
+        <v>0.270844155844155</v>
+      </c>
+      <c r="J17">
+        <v>6.7103174603174595E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.5404621361375704E-7</v>
+      </c>
+      <c r="F18">
+        <v>15.644520854949899</v>
+      </c>
+      <c r="G18">
+        <v>0.20599798165942601</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.20607966457023</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.0222215366757299E-9</v>
+      </c>
+      <c r="F19">
+        <v>37.267550420761097</v>
+      </c>
+      <c r="G19">
+        <v>0.20599798165942801</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-4.9737991503207002E-15</v>
+      </c>
+      <c r="I19">
+        <v>0.206079664570231</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-4.3964831775156201E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.5404621361375704E-7</v>
+      </c>
+      <c r="F20">
+        <v>9.0595198154449399</v>
+      </c>
+      <c r="G20">
+        <v>0.20599798165942601</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.20607966457023</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.5404621361375704E-7</v>
+      </c>
+      <c r="F21">
+        <v>8.7964585781097409</v>
+      </c>
+      <c r="G21">
+        <v>0.20599798165942601</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.20607966457023</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB5563-2895-D049-91A8-48CEDB988F5B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3052,6 +3817,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474A0FDA-1ECC-7F44-8C98-99B65811D29D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -4335,6 +5101,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60814FB-9FCA-D546-B16A-3B47F0479BF8}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -6769,6 +7536,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
@@ -8045,6 +8813,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -9442,6 +10211,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBAE7A2-5A05-0548-AADD-A382B3B345F4}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -11027,22 +11797,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74129A16-DD09-6B42-9EB8-E141E135759B}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11140,10 +11910,10 @@
       <c r="H3">
         <v>0.37258764545196799</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>0.181541218638025</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>0.30791729086512998</v>
       </c>
       <c r="K3">
@@ -11245,10 +12015,10 @@
       <c r="H6">
         <v>0.246924939467312</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>0.24883116883116799</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.15909090909090901</v>
       </c>
       <c r="K6">
@@ -11350,10 +12120,10 @@
       <c r="H9">
         <v>0.36742663851956098</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>0.265384615384615</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>0.133939014202172</v>
       </c>
       <c r="K9">
@@ -11455,10 +12225,10 @@
       <c r="H12">
         <v>0.93731852099306401</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>4.3200740055504103E-2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.90310321257689596</v>
       </c>
       <c r="K12">
@@ -11560,10 +12330,10 @@
       <c r="H15">
         <v>0.63693331634226302</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.45111111111111102</v>
       </c>
       <c r="K15">
@@ -11618,7 +12388,7 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F17">
@@ -11653,7 +12423,7 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F18">
@@ -11665,10 +12435,10 @@
       <c r="H18">
         <v>8.6956521739130297E-3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>0.228441649196366</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>-0.133333333333333</v>
       </c>
       <c r="K18">
@@ -11688,7 +12458,7 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F19">
@@ -11723,7 +12493,7 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>27.369954794962801</v>
       </c>
       <c r="F20">
@@ -11758,7 +12528,7 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>27.369954794962801</v>
       </c>
       <c r="F21">
@@ -11793,7 +12563,7 @@
       <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>11.557089180277501</v>
       </c>
       <c r="F22">
@@ -11828,7 +12598,7 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>751.72413793103397</v>
       </c>
       <c r="F23">
@@ -11863,7 +12633,7 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>751.72413793103397</v>
       </c>
       <c r="F24">
@@ -11898,7 +12668,7 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>81.586397713620798</v>
       </c>
       <c r="F25">
@@ -11933,7 +12703,7 @@
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>33.579158527608101</v>
       </c>
       <c r="F26">
@@ -11968,7 +12738,7 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>33.579158527608101</v>
       </c>
       <c r="F27">
@@ -12003,7 +12773,7 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>24.989074795935899</v>
       </c>
       <c r="F28">
@@ -12038,7 +12808,7 @@
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>10000</v>
       </c>
       <c r="F29">
@@ -12073,7 +12843,7 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>100</v>
       </c>
       <c r="F30">
@@ -12108,7 +12878,7 @@
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>10000</v>
       </c>
       <c r="F31">
@@ -12142,6 +12912,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FBB6E-6BB4-FE41-A4AE-44459054AF2B}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDBE5A9-FC03-7E4A-AC4F-6106D5B0F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23F45D9-D2FF-2649-B71A-CEEE67DC499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="28800" windowHeight="16020" activeTab="9" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="7" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
-    <sheet name="cross" sheetId="10" r:id="rId8"/>
-    <sheet name="linear" sheetId="11" r:id="rId9"/>
-    <sheet name="less_constra" sheetId="12" r:id="rId10"/>
+    <sheet name="linear" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -38,10 +36,6 @@
     <definedName name="breast_cancer_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$8:$P$8</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$9:$P$9</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$10:$P$10</definedName>
-    <definedName name="cross_val_results" localSheetId="7">cross!$A$5:$J$13</definedName>
-    <definedName name="cross_val_results_1" localSheetId="7">cross!$A$14:$J$19</definedName>
-    <definedName name="cross_val_results_2" localSheetId="7">cross!$A$20:$J$28</definedName>
-    <definedName name="cross_val_results_3" localSheetId="7">cross!$A$29:$J$31</definedName>
     <definedName name="Flow_merged_1" localSheetId="5">Sheet1!$A$2:$N$31</definedName>
     <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
     <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
@@ -49,13 +43,10 @@
     <definedName name="FlowORT_merged_v4" localSheetId="3">fourth_attempt!$A$2:$AL$21</definedName>
     <definedName name="FlowORT_merged_v4" localSheetId="4">Sheet5!$A$2:$S$21</definedName>
     <definedName name="FlowORT_merged_v4_1" localSheetId="3">fourth_attempt!$K$1:$AC$20</definedName>
-    <definedName name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" localSheetId="7">cross!$A$2:$J$4</definedName>
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
-    <definedName name="temp_results_1" localSheetId="9">less_constra!$A$2:$J$9</definedName>
-    <definedName name="temp_results_2" localSheetId="9">less_constra!$A$10:$J$17</definedName>
-    <definedName name="temp_results_3" localSheetId="9">less_constra!$A$18:$J$21</definedName>
+    <definedName name="temp_res" localSheetId="7">linear!$A$1:$J$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -343,9 +334,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{809035BB-F182-7C4C-97DB-EDD3182EA65A}" name="cross_val_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
-      <textFields count="11">
+  <connection id="13" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -360,9 +354,10 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{4055D2B3-3401-2B42-9CD3-BCABC82F641F}" name="cross_val_results1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
-      <textFields count="11">
+  <connection id="14" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -377,9 +372,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{3B4318E4-DA49-CC4D-A4CF-CC6A972C6190}" name="cross_val_results2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
-      <textFields count="11">
+  <connection id="15" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -394,9 +394,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{9C42C2E9-F5D8-C347-8362-3D0C3F8B1D6A}" name="cross_val_results3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
-      <textFields count="11">
+  <connection id="16" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -411,9 +419,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
-      <textFields count="14">
+  <connection id="17" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -431,9 +444,16 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
-      <textFields count="12">
+  <connection id="18" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -449,9 +469,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
-      <textFields count="16">
+  <connection id="19" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -471,12 +494,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="20" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -496,12 +516,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="21" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -521,12 +538,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="22" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -546,149 +560,10 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="24" xr16:uid="{E24999EF-7688-474F-AF38-65C2FA472766}" name="spect_enc_reg.csv__d_2_t_3600_cross_validation" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
+  <connection id="23" xr16:uid="{48552B6E-D20F-FC4C-A6E9-0954543A9119}" name="temp_res" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="25" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="26" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="27" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="28" xr16:uid="{C57512E9-C8E8-4949-B49A-4B8B0C8735CF}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
-      <textFields count="10">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="29" xr16:uid="{BD0AB721-AD35-604D-99EE-02B53125565A}" name="temp_results1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" tab="0" comma="1">
-      <textFields count="10">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="30" xr16:uid="{FB983B41-C05C-D04C-9AF8-2E5EA3FF7C9F}" name="temp_results2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" tab="0" comma="1">
-      <textFields count="10">
         <textField/>
         <textField/>
         <textField/>
@@ -706,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="38">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -819,34 +694,7 @@
     <t>house-votes-84_enc_reg.csv</t>
   </si>
   <si>
-    <t>k_fold</t>
-  </si>
-  <si>
-    <t>mip orig avg</t>
-  </si>
-  <si>
-    <t>mae test</t>
-  </si>
-  <si>
-    <t>mae train</t>
-  </si>
-  <si>
-    <t>time resolution avg</t>
-  </si>
-  <si>
-    <t>1-r2_lad test</t>
-  </si>
-  <si>
-    <t>1-r2_lad train</t>
-  </si>
-  <si>
     <t>monk1_enc_reg.csv</t>
-  </si>
-  <si>
-    <t>optimum not reached</t>
-  </si>
-  <si>
-    <t>FlowORT_less_constraints</t>
   </si>
 </sst>
 </file>
@@ -862,18 +710,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -888,11 +730,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,123 +752,95 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="18" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="14" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="22" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="21" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="20" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="15" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="19" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_3" connectionId="30" xr16:uid="{A0D6A27C-C8DB-7A4A-94E4-EA94F22EEF5C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_2" connectionId="29" xr16:uid="{4614975C-0310-C24C-AA9E-FC4AC3B1B759}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="23" xr16:uid="{00B8D125-911C-C542-B41C-B946086588B7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results_1" connectionId="28" xr16:uid="{C3CCA72A-CBAD-3342-9282-C2F442D0AB99}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="16" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="17" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="18" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="23" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="19" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="17" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="13" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,7 +1140,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5E881-36B0-7E42-B762-8BFB6E632CAE}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2092,709 +1904,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5234FBEC-333B-DE49-A108-23E3DCF28C20}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7.1054273576010003E-15</v>
-      </c>
-      <c r="F2">
-        <v>0.86331892013549805</v>
-      </c>
-      <c r="G2">
-        <v>3.0183086312118499E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.93508591531989405</v>
-      </c>
-      <c r="I2">
-        <v>3.0342275670675298E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.92139724310776905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>4.1507600784301699</v>
-      </c>
-      <c r="G3">
-        <v>3.0183086312118499E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.93508591531989405</v>
-      </c>
-      <c r="I3">
-        <v>3.0342275670675298E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.92139724310776905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.75196104049682599</v>
-      </c>
-      <c r="G4">
-        <v>3.0183086312118499E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.93508591531989405</v>
-      </c>
-      <c r="I4">
-        <v>3.0342275670675298E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.92139724310776905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.68001413345336903</v>
-      </c>
-      <c r="G5">
-        <v>3.0183086312118499E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.93508591531989405</v>
-      </c>
-      <c r="I5">
-        <v>3.0342275670675298E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.92139724310776905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2.25873141288757</v>
-      </c>
-      <c r="G6">
-        <v>0.167313131313131</v>
-      </c>
-      <c r="H6">
-        <v>0.64466873706004102</v>
-      </c>
-      <c r="I6">
-        <v>0.28333333333333299</v>
-      </c>
-      <c r="J6">
-        <v>0.26944444444444399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>6.6649856567382804</v>
-      </c>
-      <c r="G7">
-        <v>0.167313131313131</v>
-      </c>
-      <c r="H7">
-        <v>0.64466873706004102</v>
-      </c>
-      <c r="I7">
-        <v>0.28333333333333299</v>
-      </c>
-      <c r="J7">
-        <v>0.26944444444444399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.3684757858670001E-15</v>
-      </c>
-      <c r="F8">
-        <v>0.66391329765319795</v>
-      </c>
-      <c r="G8">
-        <v>0.167313131313131</v>
-      </c>
-      <c r="H8">
-        <v>0.64466873706004102</v>
-      </c>
-      <c r="I8">
-        <v>0.28333333333333299</v>
-      </c>
-      <c r="J8">
-        <v>0.26944444444444399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9.07915717915683E-14</v>
-      </c>
-      <c r="F9">
-        <v>0.615616178512573</v>
-      </c>
-      <c r="G9">
-        <v>0.167313131313131</v>
-      </c>
-      <c r="H9">
-        <v>0.64466873706004102</v>
-      </c>
-      <c r="I9">
-        <v>0.28333333333333299</v>
-      </c>
-      <c r="J9">
-        <v>0.26944444444444399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1.8118800163269</v>
-      </c>
-      <c r="G10">
-        <v>0.18843665768194001</v>
-      </c>
-      <c r="H10">
-        <v>0.38503463897708301</v>
-      </c>
-      <c r="I10">
-        <v>0.28774928774928699</v>
-      </c>
-      <c r="J10">
-        <v>1.9084967320261399E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>5.4300077915191602</v>
-      </c>
-      <c r="G11">
-        <v>0.18843665768194001</v>
-      </c>
-      <c r="H11">
-        <v>0.38503463897708301</v>
-      </c>
-      <c r="I11">
-        <v>0.28774928774928699</v>
-      </c>
-      <c r="J11">
-        <v>1.9084967320261399E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.59308018684387198</v>
-      </c>
-      <c r="G12">
-        <v>0.18843665768194001</v>
-      </c>
-      <c r="H12">
-        <v>0.38503463897708301</v>
-      </c>
-      <c r="I12">
-        <v>0.28774928774928699</v>
-      </c>
-      <c r="J12">
-        <v>1.9084967320261399E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.542861604690551</v>
-      </c>
-      <c r="G13">
-        <v>0.18843665768194001</v>
-      </c>
-      <c r="H13">
-        <v>0.38503463897708301</v>
-      </c>
-      <c r="I13">
-        <v>0.28774928774928699</v>
-      </c>
-      <c r="J13">
-        <v>1.9084967320261399E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>34.204917812347396</v>
-      </c>
-      <c r="G14">
-        <v>0.220231543760955</v>
-      </c>
-      <c r="H14">
-        <v>0.246868753137409</v>
-      </c>
-      <c r="I14">
-        <v>0.26720779220779201</v>
-      </c>
-      <c r="J14">
-        <v>8.0119047619047604E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>81.002533388137806</v>
-      </c>
-      <c r="G15">
-        <v>0.220231543760955</v>
-      </c>
-      <c r="H15">
-        <v>0.246868753137409</v>
-      </c>
-      <c r="I15">
-        <v>0.26720779220779201</v>
-      </c>
-      <c r="J15">
-        <v>7.8214285714285695E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>18.0424410820007</v>
-      </c>
-      <c r="G16">
-        <v>0.220231543760955</v>
-      </c>
-      <c r="H16">
-        <v>0.246868753137409</v>
-      </c>
-      <c r="I16">
-        <v>0.26720779220779201</v>
-      </c>
-      <c r="J16">
-        <v>8.0119047619047604E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>10.2114654541015</v>
-      </c>
-      <c r="G17">
-        <v>0.220231543760955</v>
-      </c>
-      <c r="H17">
-        <v>0.246868753137409</v>
-      </c>
-      <c r="I17">
-        <v>0.270844155844155</v>
-      </c>
-      <c r="J17">
-        <v>6.7103174603174595E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7.5404621361375704E-7</v>
-      </c>
-      <c r="F18">
-        <v>15.644520854949899</v>
-      </c>
-      <c r="G18">
-        <v>0.20599798165942601</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.20607966457023</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.0222215366757299E-9</v>
-      </c>
-      <c r="F19">
-        <v>37.267550420761097</v>
-      </c>
-      <c r="G19">
-        <v>0.20599798165942801</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-4.9737991503207002E-15</v>
-      </c>
-      <c r="I19">
-        <v>0.206079664570231</v>
-      </c>
-      <c r="J19" s="2">
-        <v>-4.3964831775156201E-15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7.5404621361375704E-7</v>
-      </c>
-      <c r="F20">
-        <v>9.0595198154449399</v>
-      </c>
-      <c r="G20">
-        <v>0.20599798165942601</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.20607966457023</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7.5404621361375704E-7</v>
-      </c>
-      <c r="F21">
-        <v>8.7964585781097409</v>
-      </c>
-      <c r="G21">
-        <v>0.20599798165942601</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.20607966457023</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB5563-2895-D049-91A8-48CEDB988F5B}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3817,7 +2928,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474A0FDA-1ECC-7F44-8C98-99B65811D29D}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -5101,7 +4211,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60814FB-9FCA-D546-B16A-3B47F0479BF8}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -7536,7 +6645,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
@@ -8813,11 +7921,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10211,11 +9318,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBAE7A2-5A05-0548-AADD-A382B3B345F4}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11796,171 +10902,158 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74129A16-DD09-6B42-9EB8-E141E135759B}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C1CC5B-C798-3947-96EB-ADC1FCE674E0}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" activeCellId="2" sqref="A3:XFD3 A6:XFD6 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.1111111739816801E-6</v>
+      </c>
+      <c r="F1">
+        <v>3.28163995742797</v>
+      </c>
+      <c r="G1">
+        <v>7.9532794249775302E-2</v>
+      </c>
+      <c r="H1">
+        <v>0.73936562937470396</v>
+      </c>
+      <c r="I1">
+        <v>0.17435897435897399</v>
+      </c>
+      <c r="J1">
+        <v>0.40598290598290598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.1111111739816801E-6</v>
+      </c>
+      <c r="F2">
+        <v>9.2046133518218998</v>
+      </c>
+      <c r="G2">
+        <v>7.9532794249775302E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.73936562937470396</v>
+      </c>
+      <c r="I2">
+        <v>0.16652421652421601</v>
+      </c>
+      <c r="J2">
+        <v>0.42089518668466003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.0568930257351798E-15</v>
-      </c>
-      <c r="F2">
-        <v>23.6719374656677</v>
-      </c>
-      <c r="G2">
-        <v>0.169154820072944</v>
-      </c>
-      <c r="H2">
-        <v>0.37258764545206202</v>
-      </c>
-      <c r="I2">
-        <v>0.181541218637992</v>
-      </c>
-      <c r="J2">
-        <v>0.30791729086525499</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>430.73203182280298</v>
+      </c>
+      <c r="F3">
+        <v>9.5080709457397397E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.42043126684636101</v>
+      </c>
+      <c r="H3">
+        <v>-0.37400864038930198</v>
+      </c>
+      <c r="I3">
+        <v>0.42008547008546998</v>
+      </c>
+      <c r="J3">
+        <v>-0.43600989653621203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.49688162714056E-11</v>
-      </c>
-      <c r="F3">
-        <v>82.3637865543365</v>
-      </c>
-      <c r="G3">
-        <v>0.169154820072969</v>
-      </c>
-      <c r="H3">
-        <v>0.37258764545196799</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.181541218638025</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.30791729086512998</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.7872816821836702E-12</v>
+      </c>
+      <c r="F4">
+        <v>1.8351026535034101</v>
+      </c>
+      <c r="G4">
+        <v>2.26271432723055E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.95136656981083301</v>
+      </c>
+      <c r="I4">
+        <v>5.1618871415356898E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.88645021645021405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.0568930257351798E-15</v>
-      </c>
-      <c r="F4">
-        <v>490.205153036117</v>
-      </c>
-      <c r="G4">
-        <v>0.169154820072944</v>
-      </c>
-      <c r="H4">
-        <v>0.37258764545206102</v>
-      </c>
-      <c r="I4">
-        <v>0.181541218637992</v>
-      </c>
-      <c r="J4">
-        <v>0.30791729086525499</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -11968,34 +11061,31 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
-        <v>2.7210884655256699E-7</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>18.730492591857899</v>
+        <v>13.5866327762603</v>
       </c>
       <c r="G5">
-        <v>0.220207084912967</v>
+        <v>2.2627143272304501E-2</v>
       </c>
       <c r="H5">
-        <v>0.246924939467312</v>
+        <v>0.951366569810836</v>
       </c>
       <c r="I5">
-        <v>0.26344155844155798</v>
+        <v>5.16188714153561E-2</v>
       </c>
       <c r="J5">
-        <v>0.109090909090909</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.88645021645021604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -12003,34 +11093,31 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>2.7210884655256699E-7</v>
+      <c r="E6">
+        <v>2032</v>
       </c>
       <c r="F6">
-        <v>34.557816219329801</v>
+        <v>0.18192224502563401</v>
       </c>
       <c r="G6">
-        <v>0.220207084912967</v>
+        <v>0.46552165068294099</v>
       </c>
       <c r="H6">
-        <v>0.246924939467312</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.24883116883116799</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.15909090909090901</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.46558741905642897</v>
+      </c>
+      <c r="J6">
+        <v>-1.8181818181818101E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -12039,33 +11126,30 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>2.7210884655256699E-7</v>
+        <v>6.51330841113425E-14</v>
       </c>
       <c r="F7">
-        <v>76.564423894882196</v>
+        <v>0.86574020385742101</v>
       </c>
       <c r="G7">
-        <v>0.220207084912967</v>
+        <v>3.0242424242424199E-2</v>
       </c>
       <c r="H7">
-        <v>0.246924939467312</v>
+        <v>0.93712682575342798</v>
       </c>
       <c r="I7">
-        <v>0.26344155844155798</v>
+        <v>4.8666666666666698E-2</v>
       </c>
       <c r="J7">
-        <v>0.109090909090909</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.87626262626262597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -12073,34 +11157,31 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>3.38353683695285E-15</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.75639300346374505</v>
+        <v>6.0406935214996302</v>
       </c>
       <c r="G8">
-        <v>0.19414195867025999</v>
+        <v>3.0242424242424199E-2</v>
       </c>
       <c r="H8">
-        <v>0.36742663851956098</v>
+        <v>0.93712682575342798</v>
       </c>
       <c r="I8">
-        <v>0.28019943019943</v>
+        <v>4.8666666666666601E-2</v>
       </c>
       <c r="J8">
-        <v>8.3939014202171994E-2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.87626262626262597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -12109,818 +11190,25 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1621.6666666666599</v>
       </c>
       <c r="F9">
-        <v>2.25196967124938</v>
+        <v>9.1595411300659096E-2</v>
       </c>
       <c r="G9">
-        <v>0.19414195867025999</v>
+        <v>0.49993939393939402</v>
       </c>
       <c r="H9">
-        <v>0.36742663851956098</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.265384615384615</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.133939014202172</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>5.73833475112915</v>
-      </c>
-      <c r="G10">
-        <v>0.19414195867025999</v>
-      </c>
-      <c r="H10">
-        <v>0.36742663851956098</v>
-      </c>
-      <c r="I10">
-        <v>0.28019943019943</v>
-      </c>
-      <c r="J10">
-        <v>8.3939014202172105E-2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.74219007492065403</v>
-      </c>
-      <c r="G11">
-        <v>2.9096192967160699E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.93731852099306401</v>
-      </c>
-      <c r="I11">
-        <v>4.3200740055504103E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.90310321257689596</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.969389343261718</v>
-      </c>
-      <c r="G12">
-        <v>2.9096192967160699E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.93731852099306401</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4.3200740055504103E-2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.90310321257689596</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4.3078411579131997</v>
-      </c>
-      <c r="G13">
-        <v>2.9096192967160699E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.93731852099306401</v>
-      </c>
-      <c r="I13">
-        <v>5.17113783533764E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.88405559352927698</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.65801777839660602</v>
-      </c>
-      <c r="G14">
-        <v>0.17335353535353501</v>
-      </c>
-      <c r="H14">
-        <v>0.63693331634226302</v>
-      </c>
-      <c r="I14">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.39555555555555499</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1.88389029502868</v>
-      </c>
-      <c r="G15">
-        <v>0.17335353535353501</v>
-      </c>
-      <c r="H15">
-        <v>0.63693331634226302</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.45111111111111102</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4.5300097465515101</v>
-      </c>
-      <c r="G16">
-        <v>0.17335353535353501</v>
-      </c>
-      <c r="H16">
-        <v>0.63693331634226302</v>
-      </c>
-      <c r="I16">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.45111111111111102</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.9422505580605399E-7</v>
-      </c>
-      <c r="F17">
-        <v>9.00663514137268</v>
-      </c>
-      <c r="G17">
-        <v>0.20412882278092201</v>
-      </c>
-      <c r="H17">
-        <v>8.6956521739130297E-3</v>
-      </c>
-      <c r="I17">
-        <v>0.228441649196366</v>
-      </c>
-      <c r="J17">
-        <v>-0.133333333333333</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.9422505580605399E-7</v>
-      </c>
-      <c r="F18">
-        <v>11.980052947998001</v>
-      </c>
-      <c r="G18">
-        <v>0.20412882278092201</v>
-      </c>
-      <c r="H18">
-        <v>8.6956521739130297E-3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.228441649196366</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-0.133333333333333</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.9422505580605399E-7</v>
-      </c>
-      <c r="F19">
-        <v>35.744362211227397</v>
-      </c>
-      <c r="G19">
-        <v>0.20412882278092201</v>
-      </c>
-      <c r="H19">
-        <v>8.6956521739130297E-3</v>
-      </c>
-      <c r="I19">
-        <v>0.228441649196366</v>
-      </c>
-      <c r="J19">
-        <v>-0.133333333333333</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>27.369954794962801</v>
-      </c>
-      <c r="F20">
-        <v>22.295590400695801</v>
-      </c>
-      <c r="G20">
-        <v>0.12689128481581299</v>
-      </c>
-      <c r="H20">
-        <v>0.58552667254049695</v>
-      </c>
-      <c r="I20">
-        <v>0.231339031339031</v>
-      </c>
-      <c r="J20">
-        <v>0.155873015873015</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>27.369954794962801</v>
-      </c>
-      <c r="F21">
-        <v>46.942136669158899</v>
-      </c>
-      <c r="G21">
-        <v>0.12689128481581299</v>
-      </c>
-      <c r="H21">
-        <v>0.58552667254049695</v>
-      </c>
-      <c r="I21">
-        <v>0.215954415954415</v>
-      </c>
-      <c r="J21">
-        <v>0.22837301587301501</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>11.557089180277501</v>
-      </c>
-      <c r="F22">
-        <v>2210.5839756011901</v>
-      </c>
-      <c r="G22">
-        <v>0.12689128481581299</v>
-      </c>
-      <c r="H22">
-        <v>0.58552667254049695</v>
-      </c>
-      <c r="I22">
-        <v>0.22706552706552699</v>
-      </c>
-      <c r="J22">
-        <v>0.18869047619047599</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>751.72413793103397</v>
-      </c>
-      <c r="F23">
-        <v>313.29339551925602</v>
-      </c>
-      <c r="G23">
-        <v>2.0470793374019101E-2</v>
-      </c>
-      <c r="H23">
-        <v>0.955932282228659</v>
-      </c>
-      <c r="I23">
-        <v>6.0407030527289497E-2</v>
-      </c>
-      <c r="J23">
-        <v>0.85281979458449997</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>751.72413793103397</v>
-      </c>
-      <c r="F24">
-        <v>164.99453411102201</v>
-      </c>
-      <c r="G24">
-        <v>2.0470793374019101E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.955932282228659</v>
-      </c>
-      <c r="I24">
-        <v>5.6059204440333001E-2</v>
-      </c>
-      <c r="J24">
-        <v>0.86393090569561104</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>81.586397713620798</v>
-      </c>
-      <c r="F25">
-        <v>3600.2182275772002</v>
-      </c>
-      <c r="G25">
-        <v>2.0470793374019101E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.955932282228659</v>
-      </c>
-      <c r="I25">
-        <v>6.0407030527289497E-2</v>
-      </c>
-      <c r="J25">
-        <v>0.85281979458449997</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>33.579158527608101</v>
-      </c>
-      <c r="F26">
-        <v>1758.0019995689299</v>
-      </c>
-      <c r="G26">
-        <v>0.17602562414988299</v>
-      </c>
-      <c r="H26">
-        <v>0.14438353636028001</v>
-      </c>
-      <c r="I26">
-        <v>0.213417190775681</v>
-      </c>
-      <c r="J26">
-        <v>-8.74725274725274E-2</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>33.579158527608101</v>
-      </c>
-      <c r="F27">
-        <v>1795.04660406112</v>
-      </c>
-      <c r="G27">
-        <v>0.17602562414988299</v>
-      </c>
-      <c r="H27">
-        <v>0.14438353636028001</v>
-      </c>
-      <c r="I27">
-        <v>0.220824598183088</v>
-      </c>
-      <c r="J27">
-        <v>-0.14461538461538401</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>24.989074795935899</v>
-      </c>
-      <c r="F28">
-        <v>3600.3230673313101</v>
-      </c>
-      <c r="G28">
-        <v>0.176025635780205</v>
-      </c>
-      <c r="H28">
-        <v>0.14438347710102101</v>
-      </c>
-      <c r="I28">
-        <v>0.22082460992312999</v>
-      </c>
-      <c r="J28">
-        <v>-0.14461543247863201</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>10000</v>
-      </c>
-      <c r="F29">
-        <v>3601.9170865535698</v>
-      </c>
-      <c r="G29">
-        <v>0.18411805470629</v>
-      </c>
-      <c r="H29">
-        <v>0.36796590995825001</v>
-      </c>
-      <c r="I29">
-        <v>0.25636363636363602</v>
-      </c>
-      <c r="J29">
-        <v>7.1176939003025894E-2</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>3600.7618412494598</v>
-      </c>
-      <c r="G30">
-        <v>0.18773797220167401</v>
-      </c>
-      <c r="H30">
-        <v>0.35634326671174898</v>
-      </c>
-      <c r="I30">
-        <v>0.27084415504258702</v>
-      </c>
-      <c r="J30">
-        <v>2.9147957535356199E-2</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>10000</v>
-      </c>
-      <c r="F31">
-        <v>3601.38449277877</v>
-      </c>
-      <c r="G31">
-        <v>0.18411805470629</v>
-      </c>
-      <c r="H31">
-        <v>0.36855338625559098</v>
-      </c>
-      <c r="I31">
-        <v>0.263636363636363</v>
-      </c>
-      <c r="J31">
-        <v>4.2481286829112903E-2</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
+        <v>-4.2113547546678197E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.499</v>
+      </c>
+      <c r="J9">
+        <v>-0.21010101010101001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-    <sortCondition ref="C2:C28"/>
-    <sortCondition ref="B2:B28"/>
-    <sortCondition ref="A2:A28"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FBB6E-6BB4-FE41-A4AE-44459054AF2B}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4109C3D-AB1A-CC42-B160-098B461D0AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398DD95-44BD-364D-BE66-F017C49A8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38360" yWindow="-120" windowWidth="28800" windowHeight="16020" activeTab="7" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
     <sheet name="cross" sheetId="10" r:id="rId8"/>
     <sheet name="linear" sheetId="11" r:id="rId9"/>
+    <sheet name="cross_depth_2_22_11" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -52,6 +53,7 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
+    <definedName name="temp_results" localSheetId="9">cross_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -340,7 +342,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{809035BB-F182-7C4C-97DB-EDD3182EA65A}" name="cross_val_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -357,7 +359,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{4055D2B3-3401-2B42-9CD3-BCABC82F641F}" name="cross_val_results1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -374,7 +376,7 @@
     </textPr>
   </connection>
   <connection id="15" xr16:uid="{3B4318E4-DA49-CC4D-A4CF-CC6A972C6190}" name="cross_val_results2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -391,7 +393,7 @@
     </textPr>
   </connection>
   <connection id="16" xr16:uid="{9C42C2E9-F5D8-C347-8362-3D0C3F8B1D6A}" name="cross_val_results3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -568,7 +570,7 @@
     </textPr>
   </connection>
   <connection id="24" xr16:uid="{E24999EF-7688-474F-AF38-65C2FA472766}" name="spect_enc_reg.csv__d_2_t_3600_cross_validation" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -636,6 +638,23 @@
         <textField/>
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="28" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -654,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -833,14 +852,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -864,31 +879,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -896,11 +911,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,35 +923,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="28" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,11 +979,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2028,6 +2047,555 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>3600</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5.40593378320427E-8</v>
+      </c>
+      <c r="G1">
+        <v>90.395242881774905</v>
+      </c>
+      <c r="H1">
+        <v>0.169065852101422</v>
+      </c>
+      <c r="I1">
+        <v>0.37285137079231201</v>
+      </c>
+      <c r="J1">
+        <v>0.182334869431659</v>
+      </c>
+      <c r="K1">
+        <v>0.30306611623137703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>548.52847139835296</v>
+      </c>
+      <c r="H2">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I2">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J2">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K2">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="G3">
+        <v>26.8598527193069</v>
+      </c>
+      <c r="H3">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I3">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J3">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K3">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.21506853103637</v>
+      </c>
+      <c r="H4">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I4">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J4">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K4">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6.2991050243377602</v>
+      </c>
+      <c r="H5">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I5">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J5">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K5">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="G6">
+        <v>0.63494205474853505</v>
+      </c>
+      <c r="H6">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I6">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J6">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K6">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="G7">
+        <v>0.86944227218627901</v>
+      </c>
+      <c r="H7">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J7">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.1604530334472596</v>
+      </c>
+      <c r="H8">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J8">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.77150974273681605</v>
+      </c>
+      <c r="H9">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J9">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.9187446117401099</v>
+      </c>
+      <c r="H10">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I10">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J10">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K10">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5.6395232677459699</v>
+      </c>
+      <c r="H11">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I11">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J11">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K11">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.62091102600097603</v>
+      </c>
+      <c r="H12">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I12">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J12">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K12">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>34.689058732986403</v>
+      </c>
+      <c r="H13">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I13">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J13">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K13">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>80.771074581146195</v>
+      </c>
+      <c r="H14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I14">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J14">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K14">
+        <v>7.8214285714285695E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>18.031831598281801</v>
+      </c>
+      <c r="H15">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I15">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J15">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K15">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB5563-2895-D049-91A8-48CEDB988F5B}">
   <dimension ref="A1:O21"/>
@@ -6771,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11029,7 +11597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74129A16-DD09-6B42-9EB8-E141E135759B}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -11140,10 +11708,10 @@
       <c r="H3">
         <v>0.37258764545196799</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>0.181541218638025</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>0.30791729086512998</v>
       </c>
       <c r="K3">
@@ -11245,10 +11813,10 @@
       <c r="H6">
         <v>0.246924939467312</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>0.24883116883116799</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.15909090909090901</v>
       </c>
       <c r="K6">
@@ -11350,10 +11918,10 @@
       <c r="H9">
         <v>0.36742663851956098</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>0.265384615384615</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>0.133939014202172</v>
       </c>
       <c r="K9">
@@ -11455,10 +12023,10 @@
       <c r="H12">
         <v>0.93731852099306401</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>4.3200740055504103E-2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.90310321257689596</v>
       </c>
       <c r="K12">
@@ -11560,10 +12128,10 @@
       <c r="H15">
         <v>0.63693331634226302</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.45111111111111102</v>
       </c>
       <c r="K15">
@@ -11618,7 +12186,7 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F17">
@@ -11653,7 +12221,7 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F18">
@@ -11665,10 +12233,10 @@
       <c r="H18">
         <v>8.6956521739130297E-3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>0.228441649196366</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>-0.133333333333333</v>
       </c>
       <c r="K18">
@@ -11688,7 +12256,7 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>2.9422505580605399E-7</v>
       </c>
       <c r="F19">
@@ -11723,7 +12291,7 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>27.369954794962801</v>
       </c>
       <c r="F20">
@@ -11758,7 +12326,7 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>27.369954794962801</v>
       </c>
       <c r="F21">
@@ -11793,7 +12361,7 @@
       <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>11.557089180277501</v>
       </c>
       <c r="F22">
@@ -11828,7 +12396,7 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>751.72413793103397</v>
       </c>
       <c r="F23">
@@ -11863,7 +12431,7 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>751.72413793103397</v>
       </c>
       <c r="F24">
@@ -11898,7 +12466,7 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>81.586397713620798</v>
       </c>
       <c r="F25">
@@ -11933,7 +12501,7 @@
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>33.579158527608101</v>
       </c>
       <c r="F26">
@@ -11968,7 +12536,7 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>33.579158527608101</v>
       </c>
       <c r="F27">
@@ -12003,7 +12571,7 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>24.989074795935899</v>
       </c>
       <c r="F28">
@@ -12038,7 +12606,7 @@
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>10000</v>
       </c>
       <c r="F29">
@@ -12073,7 +12641,7 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>100</v>
       </c>
       <c r="F30">
@@ -12108,7 +12676,7 @@
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>10000</v>
       </c>
       <c r="F31">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E9E81-77C5-BF4E-9936-B02F0012FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398DD95-44BD-364D-BE66-F017C49A8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="6" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
+    <sheet name="cross" sheetId="10" r:id="rId8"/>
+    <sheet name="linear" sheetId="11" r:id="rId9"/>
+    <sheet name="cross_depth_2_22_11" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -35,6 +38,10 @@
     <definedName name="breast_cancer_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$8:$P$8</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$9:$P$9</definedName>
     <definedName name="breast_cancer_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$10:$P$10</definedName>
+    <definedName name="cross_val_results" localSheetId="7">cross!$A$5:$J$13</definedName>
+    <definedName name="cross_val_results_1" localSheetId="7">cross!$A$14:$J$19</definedName>
+    <definedName name="cross_val_results_2" localSheetId="7">cross!$A$20:$J$28</definedName>
+    <definedName name="cross_val_results_3" localSheetId="7">cross!$A$29:$J$31</definedName>
     <definedName name="Flow_merged_1" localSheetId="5">Sheet1!$A$2:$N$31</definedName>
     <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
     <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
@@ -42,9 +49,11 @@
     <definedName name="FlowORT_merged_v4" localSheetId="3">fourth_attempt!$A$2:$AL$21</definedName>
     <definedName name="FlowORT_merged_v4" localSheetId="4">Sheet5!$A$2:$S$21</definedName>
     <definedName name="FlowORT_merged_v4_1" localSheetId="3">fourth_attempt!$K$1:$AC$20</definedName>
+    <definedName name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" localSheetId="7">cross!$A$2:$J$4</definedName>
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
+    <definedName name="temp_results" localSheetId="9">cross_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +78,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{7243C251-59B3-8941-B8BB-AD8DD72F9FF7}" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -91,7 +100,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{E6D70863-09A0-B545-BD8D-64F255706A8A}" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -113,7 +122,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{2E57F949-879E-614C-BFEE-9E61347D1325}" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_d_2_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/balance-scale_enc_reg.csv_FlowORT_d_2_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -135,7 +144,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{F65C0F3E-D4D7-7D42-82CB-3AD001CBE092}" name="breast" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -157,7 +166,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{FC68C437-7058-CF40-95DC-9CEBE1E26C18}" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -179,7 +188,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{CFD14039-B687-1E4E-91FF-BD7C04754D8D}" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -201,7 +210,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{ADF275DB-B646-6B4D-ABD6-509CA4FD171C}" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -223,7 +232,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{A595F390-AACF-8B43-8FD5-1DB03E01935A}" name="breast1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -245,7 +254,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{C7824518-AEF9-A742-B58C-7C616CF91256}" name="breast2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -267,7 +276,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{216439B1-826D-D744-8158-22917DC96FC9}" name="breast3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -289,7 +298,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{01E7CFCD-C604-554C-8189-F72EEFDF0B9E}" name="breast4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -311,7 +320,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{D1BB8CFE-E970-F14F-9F99-45220841EEED}" name="breast5" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/breast.csv" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -332,12 +341,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
-      <textFields count="14">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="13" xr16:uid="{809035BB-F182-7C4C-97DB-EDD3182EA65A}" name="cross_val_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -352,10 +358,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
-      <textFields count="12">
-        <textField/>
+  <connection id="14" xr16:uid="{4055D2B3-3401-2B42-9CD3-BCABC82F641F}" name="cross_val_results1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -370,14 +375,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
-      <textFields count="16">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="15" xr16:uid="{3B4318E4-DA49-CC4D-A4CF-CC6A972C6190}" name="cross_val_results2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" tab="0" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -392,17 +392,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="16" xr16:uid="{9C42C2E9-F5D8-C347-8362-3D0C3F8B1D6A}" name="cross_val_results3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/cross_val_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -417,14 +409,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="17" xr16:uid="{0B7E41EF-F552-0546-8AD2-56F2646A41D4}" name="Flow_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/Flow_merged.csv" tab="0" comma="1">
+      <textFields count="14">
         <textField/>
         <textField/>
         <textField/>
@@ -442,16 +429,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="18" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+      <textFields count="12">
         <textField/>
         <textField/>
         <textField/>
@@ -467,12 +447,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
-      <textFields count="19">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="19" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
@@ -492,9 +469,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
+  <connection id="20" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -514,9 +494,12 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
-      <textFields count="16">
+  <connection id="21" xr16:uid="{8D29B154-FBD1-DC4A-9265-E6B4451FA048}" name="FlowORT_merged_v4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -536,14 +519,142 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+  <connection id="22" xr16:uid="{9161CE35-2BAA-5844-8FC7-A53E04DF7D87}" name="FlowORT_merged_v41" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" xr16:uid="{1A684BC6-0443-C543-B065-88FA3DDEEE34}" name="FlowORT_merged_v42" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v4.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" xr16:uid="{E24999EF-7688-474F-AF38-65C2FA472766}" name="spect_enc_reg.csv__d_2_t_3600_cross_validation" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv__d_2_t_3600_cross_validation.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" xr16:uid="{BFEC2025-77CE-3548-8CDF-1833AE5E1266}" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowOCT_d_3_t_3600.csv" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
         <textField/>
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="26" xr16:uid="{E78AB1B2-AE04-2445-898A-943AB425E702}" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_binary_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="27" xr16:uid="{7D81FB07-68B9-5645-BD8D-E2B4F07E2E70}" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/spect_enc_reg.csv_FlowORT_d_3_t_3600.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="28" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
+      <textFields count="11">
         <textField/>
         <textField/>
         <textField/>
@@ -562,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -674,6 +785,33 @@
   <si>
     <t>house-votes-84_enc_reg.csv</t>
   </si>
+  <si>
+    <t>k_fold</t>
+  </si>
+  <si>
+    <t>mip orig avg</t>
+  </si>
+  <si>
+    <t>mae test</t>
+  </si>
+  <si>
+    <t>mae train</t>
+  </si>
+  <si>
+    <t>time resolution avg</t>
+  </si>
+  <si>
+    <t>1-r2_lad test</t>
+  </si>
+  <si>
+    <t>1-r2_lad train</t>
+  </si>
+  <si>
+    <t>monk1_enc_reg.csv</t>
+  </si>
+  <si>
+    <t>optimum not reached</t>
+  </si>
 </sst>
 </file>
 
@@ -688,12 +826,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -708,10 +852,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,91 +875,115 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="14" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="18" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="19" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="15" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="22" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="21" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="20" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="28" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="16" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="18" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="17" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="19" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="23" xr16:uid="{C13CF44E-4974-A746-AFD5-CAD319201F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="13" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Flow_merged_1" connectionId="17" xr16:uid="{98192304-7506-2C45-B7AD-62A6B0EA9245}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,6 +2047,555 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>3600</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5.40593378320427E-8</v>
+      </c>
+      <c r="G1">
+        <v>90.395242881774905</v>
+      </c>
+      <c r="H1">
+        <v>0.169065852101422</v>
+      </c>
+      <c r="I1">
+        <v>0.37285137079231201</v>
+      </c>
+      <c r="J1">
+        <v>0.182334869431659</v>
+      </c>
+      <c r="K1">
+        <v>0.30306611623137703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>548.52847139835296</v>
+      </c>
+      <c r="H2">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I2">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J2">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K2">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="G3">
+        <v>26.8598527193069</v>
+      </c>
+      <c r="H3">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I3">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J3">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K3">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.21506853103637</v>
+      </c>
+      <c r="H4">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I4">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J4">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K4">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6.2991050243377602</v>
+      </c>
+      <c r="H5">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I5">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J5">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K5">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="G6">
+        <v>0.63494205474853505</v>
+      </c>
+      <c r="H6">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I6">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J6">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K6">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="G7">
+        <v>0.86944227218627901</v>
+      </c>
+      <c r="H7">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J7">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.1604530334472596</v>
+      </c>
+      <c r="H8">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J8">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.77150974273681605</v>
+      </c>
+      <c r="H9">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J9">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.9187446117401099</v>
+      </c>
+      <c r="H10">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I10">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J10">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K10">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5.6395232677459699</v>
+      </c>
+      <c r="H11">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I11">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J11">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K11">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.62091102600097603</v>
+      </c>
+      <c r="H12">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I12">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J12">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K12">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>34.689058732986403</v>
+      </c>
+      <c r="H13">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I13">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J13">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K13">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>80.771074581146195</v>
+      </c>
+      <c r="H14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I14">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J14">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K14">
+        <v>7.8214285714285695E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>18.031831598281801</v>
+      </c>
+      <c r="H15">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I15">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J15">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K15">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB5563-2895-D049-91A8-48CEDB988F5B}">
   <dimension ref="A1:O21"/>
@@ -6621,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7897,8 +8615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C53E818-756D-B44F-AF99-655B8DC88A51}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9294,8 +10012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBAE7A2-5A05-0548-AADD-A382B3B345F4}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10873,4 +11591,1133 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74129A16-DD09-6B42-9EB8-E141E135759B}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.0568930257351798E-15</v>
+      </c>
+      <c r="F2">
+        <v>23.6719374656677</v>
+      </c>
+      <c r="G2">
+        <v>0.169154820072944</v>
+      </c>
+      <c r="H2">
+        <v>0.37258764545206202</v>
+      </c>
+      <c r="I2">
+        <v>0.181541218637992</v>
+      </c>
+      <c r="J2">
+        <v>0.30791729086525499</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.49688162714056E-11</v>
+      </c>
+      <c r="F3">
+        <v>82.3637865543365</v>
+      </c>
+      <c r="G3">
+        <v>0.169154820072969</v>
+      </c>
+      <c r="H3">
+        <v>0.37258764545196799</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.181541218638025</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.30791729086512998</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.0568930257351798E-15</v>
+      </c>
+      <c r="F4">
+        <v>490.205153036117</v>
+      </c>
+      <c r="G4">
+        <v>0.169154820072944</v>
+      </c>
+      <c r="H4">
+        <v>0.37258764545206102</v>
+      </c>
+      <c r="I4">
+        <v>0.181541218637992</v>
+      </c>
+      <c r="J4">
+        <v>0.30791729086525499</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F5">
+        <v>18.730492591857899</v>
+      </c>
+      <c r="G5">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H5">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I5">
+        <v>0.26344155844155798</v>
+      </c>
+      <c r="J5">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F6">
+        <v>34.557816219329801</v>
+      </c>
+      <c r="G6">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H6">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.24883116883116799</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.15909090909090901</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.7210884655256699E-7</v>
+      </c>
+      <c r="F7">
+        <v>76.564423894882196</v>
+      </c>
+      <c r="G7">
+        <v>0.220207084912967</v>
+      </c>
+      <c r="H7">
+        <v>0.246924939467312</v>
+      </c>
+      <c r="I7">
+        <v>0.26344155844155798</v>
+      </c>
+      <c r="J7">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.38353683695285E-15</v>
+      </c>
+      <c r="F8">
+        <v>0.75639300346374505</v>
+      </c>
+      <c r="G8">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H8">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I8">
+        <v>0.28019943019943</v>
+      </c>
+      <c r="J8">
+        <v>8.3939014202171994E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.25196967124938</v>
+      </c>
+      <c r="G9">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H9">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.265384615384615</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.133939014202172</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5.73833475112915</v>
+      </c>
+      <c r="G10">
+        <v>0.19414195867025999</v>
+      </c>
+      <c r="H10">
+        <v>0.36742663851956098</v>
+      </c>
+      <c r="I10">
+        <v>0.28019943019943</v>
+      </c>
+      <c r="J10">
+        <v>8.3939014202172105E-2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.74219007492065403</v>
+      </c>
+      <c r="G11">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I11">
+        <v>4.3200740055504103E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.90310321257689596</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.969389343261718</v>
+      </c>
+      <c r="G12">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.3200740055504103E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.90310321257689596</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4.3078411579131997</v>
+      </c>
+      <c r="G13">
+        <v>2.9096192967160699E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.93731852099306401</v>
+      </c>
+      <c r="I13">
+        <v>5.17113783533764E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.88405559352927698</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.65801777839660602</v>
+      </c>
+      <c r="G14">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H14">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I14">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.39555555555555499</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.88389029502868</v>
+      </c>
+      <c r="G15">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H15">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.45111111111111102</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.5300097465515101</v>
+      </c>
+      <c r="G16">
+        <v>0.17335353535353501</v>
+      </c>
+      <c r="H16">
+        <v>0.63693331634226302</v>
+      </c>
+      <c r="I16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.45111111111111102</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F17">
+        <v>9.00663514137268</v>
+      </c>
+      <c r="G17">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H17">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I17">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J17">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F18">
+        <v>11.980052947998001</v>
+      </c>
+      <c r="G18">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H18">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.9422505580605399E-7</v>
+      </c>
+      <c r="F19">
+        <v>35.744362211227397</v>
+      </c>
+      <c r="G19">
+        <v>0.20412882278092201</v>
+      </c>
+      <c r="H19">
+        <v>8.6956521739130297E-3</v>
+      </c>
+      <c r="I19">
+        <v>0.228441649196366</v>
+      </c>
+      <c r="J19">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>27.369954794962801</v>
+      </c>
+      <c r="F20">
+        <v>22.295590400695801</v>
+      </c>
+      <c r="G20">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H20">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I20">
+        <v>0.231339031339031</v>
+      </c>
+      <c r="J20">
+        <v>0.155873015873015</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>27.369954794962801</v>
+      </c>
+      <c r="F21">
+        <v>46.942136669158899</v>
+      </c>
+      <c r="G21">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H21">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I21">
+        <v>0.215954415954415</v>
+      </c>
+      <c r="J21">
+        <v>0.22837301587301501</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11.557089180277501</v>
+      </c>
+      <c r="F22">
+        <v>2210.5839756011901</v>
+      </c>
+      <c r="G22">
+        <v>0.12689128481581299</v>
+      </c>
+      <c r="H22">
+        <v>0.58552667254049695</v>
+      </c>
+      <c r="I22">
+        <v>0.22706552706552699</v>
+      </c>
+      <c r="J22">
+        <v>0.18869047619047599</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>751.72413793103397</v>
+      </c>
+      <c r="F23">
+        <v>313.29339551925602</v>
+      </c>
+      <c r="G23">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I23">
+        <v>6.0407030527289497E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.85281979458449997</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>751.72413793103397</v>
+      </c>
+      <c r="F24">
+        <v>164.99453411102201</v>
+      </c>
+      <c r="G24">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I24">
+        <v>5.6059204440333001E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.86393090569561104</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>81.586397713620798</v>
+      </c>
+      <c r="F25">
+        <v>3600.2182275772002</v>
+      </c>
+      <c r="G25">
+        <v>2.0470793374019101E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.955932282228659</v>
+      </c>
+      <c r="I25">
+        <v>6.0407030527289497E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.85281979458449997</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>33.579158527608101</v>
+      </c>
+      <c r="F26">
+        <v>1758.0019995689299</v>
+      </c>
+      <c r="G26">
+        <v>0.17602562414988299</v>
+      </c>
+      <c r="H26">
+        <v>0.14438353636028001</v>
+      </c>
+      <c r="I26">
+        <v>0.213417190775681</v>
+      </c>
+      <c r="J26">
+        <v>-8.74725274725274E-2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>33.579158527608101</v>
+      </c>
+      <c r="F27">
+        <v>1795.04660406112</v>
+      </c>
+      <c r="G27">
+        <v>0.17602562414988299</v>
+      </c>
+      <c r="H27">
+        <v>0.14438353636028001</v>
+      </c>
+      <c r="I27">
+        <v>0.220824598183088</v>
+      </c>
+      <c r="J27">
+        <v>-0.14461538461538401</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>24.989074795935899</v>
+      </c>
+      <c r="F28">
+        <v>3600.3230673313101</v>
+      </c>
+      <c r="G28">
+        <v>0.176025635780205</v>
+      </c>
+      <c r="H28">
+        <v>0.14438347710102101</v>
+      </c>
+      <c r="I28">
+        <v>0.22082460992312999</v>
+      </c>
+      <c r="J28">
+        <v>-0.14461543247863201</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>10000</v>
+      </c>
+      <c r="F29">
+        <v>3601.9170865535698</v>
+      </c>
+      <c r="G29">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="H29">
+        <v>0.36796590995825001</v>
+      </c>
+      <c r="I29">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="J29">
+        <v>7.1176939003025894E-2</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>3600.7618412494598</v>
+      </c>
+      <c r="G30">
+        <v>0.18773797220167401</v>
+      </c>
+      <c r="H30">
+        <v>0.35634326671174898</v>
+      </c>
+      <c r="I30">
+        <v>0.27084415504258702</v>
+      </c>
+      <c r="J30">
+        <v>2.9147957535356199E-2</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>10000</v>
+      </c>
+      <c r="F31">
+        <v>3601.38449277877</v>
+      </c>
+      <c r="G31">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="H31">
+        <v>0.36855338625559098</v>
+      </c>
+      <c r="I31">
+        <v>0.263636363636363</v>
+      </c>
+      <c r="J31">
+        <v>4.2481286829112903E-2</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+    <sortCondition ref="C2:C28"/>
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FBB6E-6BB4-FE41-A4AE-44459054AF2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398DD95-44BD-364D-BE66-F017C49A8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEC9D3-0412-1F48-91A8-1E5E948E8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="9" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="cross" sheetId="10" r:id="rId8"/>
     <sheet name="linear" sheetId="11" r:id="rId9"/>
     <sheet name="cross_depth_2_22_11" sheetId="12" r:id="rId10"/>
+    <sheet name="cross_depth_2_linear_22_11" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -53,6 +54,8 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
+    <definedName name="temp_res" localSheetId="10">cross_depth_2_linear_22_11!$A$2:$J$10</definedName>
+    <definedName name="temp_res_1" localSheetId="10">cross_depth_2_linear_22_11!$A$11:$J$22</definedName>
     <definedName name="temp_results" localSheetId="9">cross_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -652,8 +655,42 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
+  <connection id="28" xr16:uid="{6956EA9A-C7A7-1F47-AA88-5EF7D472DA50}" name="temp_res" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="29" xr16:uid="{3FC28217-1AAB-404F-B5E6-6FA23DE525C7}" name="temp_res1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="30" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -673,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -879,43 +916,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,51 +960,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="30" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="28" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,11 +1024,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2051,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,6 +2634,738 @@
       </c>
       <c r="K15">
         <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A2024-16A7-074F-9CDC-76F8E9FFD3D9}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.26205320874814E-7</v>
+      </c>
+      <c r="F2">
+        <v>2.8582922458648601</v>
+      </c>
+      <c r="G2">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I2">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J2">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.2620527893676499E-7</v>
+      </c>
+      <c r="F3">
+        <v>10.355468606948801</v>
+      </c>
+      <c r="G3">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I3">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J3">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>463.54710537812798</v>
+      </c>
+      <c r="F4">
+        <v>8.6019802093505807E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.42042228212039501</v>
+      </c>
+      <c r="H4">
+        <v>-0.374248566383723</v>
+      </c>
+      <c r="I4">
+        <v>0.41994301994301902</v>
+      </c>
+      <c r="J4">
+        <v>-0.45941176470588202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.90425453183706E-12</v>
+      </c>
+      <c r="F5">
+        <v>1.7797363758087099</v>
+      </c>
+      <c r="G5">
+        <v>2.3714036617262901E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.94907442052544</v>
+      </c>
+      <c r="I5">
+        <v>3.4597594819611999E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.91270159093385494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>12.463001871109</v>
+      </c>
+      <c r="G6">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="I6">
+        <v>4.3108233117483803E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.88770159093385603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1936</v>
+      </c>
+      <c r="F7">
+        <v>0.16604876518249501</v>
+      </c>
+      <c r="G7">
+        <v>0.46553908747457101</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.46586493987048999</v>
+      </c>
+      <c r="J7">
+        <v>-0.13100141658493999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-2.66453525910037E-14</v>
+      </c>
+      <c r="F8">
+        <v>0.76972837448120102</v>
+      </c>
+      <c r="G8">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I8">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.86888888888888804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5083047578154901E-13</v>
+      </c>
+      <c r="F9">
+        <v>4.9805492401122997</v>
+      </c>
+      <c r="G9">
+        <v>3.2242424242424302E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I9">
+        <v>6.4333333333333395E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.84388888888888802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1561.6666666666599</v>
+      </c>
+      <c r="F10">
+        <v>7.4189949035644506E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.50004040404040395</v>
+      </c>
+      <c r="H10">
+        <v>-6.08695652173913E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.50066666666666604</v>
+      </c>
+      <c r="J10">
+        <v>-0.32166666666666599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.26205320874814E-7</v>
+      </c>
+      <c r="F11">
+        <v>2.8582922458648601</v>
+      </c>
+      <c r="G11">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I11">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J11">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.2620527893676499E-7</v>
+      </c>
+      <c r="F12">
+        <v>10.355468606948801</v>
+      </c>
+      <c r="G12">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I12">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J12">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>463.54710537812798</v>
+      </c>
+      <c r="F13">
+        <v>8.6019802093505807E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.42042228212039501</v>
+      </c>
+      <c r="H13">
+        <v>-0.374248566383723</v>
+      </c>
+      <c r="I13">
+        <v>0.41994301994301902</v>
+      </c>
+      <c r="J13">
+        <v>-0.45941176470588202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.90425453183706E-12</v>
+      </c>
+      <c r="F14">
+        <v>1.7797363758087099</v>
+      </c>
+      <c r="G14">
+        <v>2.3714036617262901E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.94907442052544</v>
+      </c>
+      <c r="I14">
+        <v>3.4597594819611999E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.91270159093385494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>12.463001871109</v>
+      </c>
+      <c r="G15">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="I15">
+        <v>4.3108233117483803E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.88770159093385603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1936</v>
+      </c>
+      <c r="F16">
+        <v>0.16604876518249501</v>
+      </c>
+      <c r="G16">
+        <v>0.46553908747457101</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.46586493987048999</v>
+      </c>
+      <c r="J16">
+        <v>-0.13100141658493999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-2.66453525910037E-14</v>
+      </c>
+      <c r="F17">
+        <v>0.76972837448120102</v>
+      </c>
+      <c r="G17">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I17">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.86888888888888804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.5083047578154901E-13</v>
+      </c>
+      <c r="F18">
+        <v>4.9805492401122997</v>
+      </c>
+      <c r="G18">
+        <v>3.2242424242424302E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I18">
+        <v>6.4333333333333395E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.84388888888888802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1561.6666666666599</v>
+      </c>
+      <c r="F19">
+        <v>7.4189949035644506E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.50004040404040395</v>
+      </c>
+      <c r="H19">
+        <v>-6.08695652173913E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.50066666666666604</v>
+      </c>
+      <c r="J19">
+        <v>-0.32166666666666599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>43.7150040925683</v>
+      </c>
+      <c r="F20">
+        <v>576.32247157096799</v>
+      </c>
+      <c r="G20">
+        <v>0.13726640878753199</v>
+      </c>
+      <c r="H20">
+        <v>0.49080129583552501</v>
+      </c>
+      <c r="I20">
+        <v>0.172748056901282</v>
+      </c>
+      <c r="J20">
+        <v>0.34081923190736502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>43.745084062959798</v>
+      </c>
+      <c r="F21">
+        <v>1925.5378006696701</v>
+      </c>
+      <c r="G21">
+        <v>0.13728865078043101</v>
+      </c>
+      <c r="H21">
+        <v>0.49071932862234602</v>
+      </c>
+      <c r="I21">
+        <v>0.172748056901293</v>
+      </c>
+      <c r="J21">
+        <v>0.340819231907321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>620.08234328965102</v>
+      </c>
+      <c r="F22">
+        <v>0.56475827693939196</v>
+      </c>
+      <c r="G22">
+        <v>0.69120149428266198</v>
+      </c>
+      <c r="H22">
+        <v>-1.5638554153803801</v>
+      </c>
+      <c r="I22">
+        <v>0.69132104454685095</v>
+      </c>
+      <c r="J22">
+        <v>-1.6446045128706399</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +8116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11598,7 +12375,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398DD95-44BD-364D-BE66-F017C49A8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEA807-2873-DF43-A6C5-6AECA26F32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="32460" yWindow="-2140" windowWidth="28800" windowHeight="15960" firstSheet="2" activeTab="10" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
     <sheet name="cross" sheetId="10" r:id="rId8"/>
     <sheet name="linear" sheetId="11" r:id="rId9"/>
-    <sheet name="cross_depth_2_22_11" sheetId="12" r:id="rId10"/>
+    <sheet name="cross_depth_2_linear_22_11" sheetId="13" r:id="rId10"/>
+    <sheet name="constant_depth_2_22_11" sheetId="12" r:id="rId11"/>
+    <sheet name="constant_no_p_depth_2_10_12" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -53,7 +55,11 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
-    <definedName name="temp_results" localSheetId="9">cross_depth_2_22_11!$A$1:$K$15</definedName>
+    <definedName name="temp_res" localSheetId="11">constant_no_p_depth_2_10_12!$A$1:$K$12</definedName>
+    <definedName name="temp_res" localSheetId="9">cross_depth_2_linear_22_11!$A$2:$J$10</definedName>
+    <definedName name="temp_res_1" localSheetId="11">constant_no_p_depth_2_10_12!$A$13:$K$15</definedName>
+    <definedName name="temp_res_1" localSheetId="9">cross_depth_2_linear_22_11!$A$11:$J$22</definedName>
+    <definedName name="temp_results" localSheetId="10">constant_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -652,8 +658,76 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
+  <connection id="28" xr16:uid="{6956EA9A-C7A7-1F47-AA88-5EF7D472DA50}" name="temp_res" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="29" xr16:uid="{3FC28217-1AAB-404F-B5E6-6FA23DE525C7}" name="temp_res1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="30" xr16:uid="{8746E04C-4322-5F4F-A356-100AFCCB1EB6}" name="temp_res2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="31" xr16:uid="{23155430-14E2-C240-894A-BA2CFD7A7E75}" name="temp_res3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="32" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -673,7 +747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -883,15 +957,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,23 +973,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,43 +997,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="28" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="20" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="32" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="31" xr16:uid="{7ED7B6D2-6E9F-154D-B747-E4BC966E3F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="30" xr16:uid="{BD91680A-A2F9-6B4B-BF9C-42D7CA8C7E76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,11 +1069,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2048,11 +2138,743 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A2024-16A7-074F-9CDC-76F8E9FFD3D9}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.26205320874814E-7</v>
+      </c>
+      <c r="F2">
+        <v>2.8582922458648601</v>
+      </c>
+      <c r="G2">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I2">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J2">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.2620527893676499E-7</v>
+      </c>
+      <c r="F3">
+        <v>10.355468606948801</v>
+      </c>
+      <c r="G3">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I3">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J3">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>463.54710537812798</v>
+      </c>
+      <c r="F4">
+        <v>8.6019802093505807E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.42042228212039501</v>
+      </c>
+      <c r="H4">
+        <v>-0.374248566383723</v>
+      </c>
+      <c r="I4">
+        <v>0.41994301994301902</v>
+      </c>
+      <c r="J4">
+        <v>-0.45941176470588202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.90425453183706E-12</v>
+      </c>
+      <c r="F5">
+        <v>1.7797363758087099</v>
+      </c>
+      <c r="G5">
+        <v>2.3714036617262901E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.94907442052544</v>
+      </c>
+      <c r="I5">
+        <v>3.4597594819611999E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.91270159093385494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>12.463001871109</v>
+      </c>
+      <c r="G6">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="I6">
+        <v>4.3108233117483803E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.88770159093385603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1936</v>
+      </c>
+      <c r="F7">
+        <v>0.16604876518249501</v>
+      </c>
+      <c r="G7">
+        <v>0.46553908747457101</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.46586493987048999</v>
+      </c>
+      <c r="J7">
+        <v>-0.13100141658493999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-2.66453525910037E-14</v>
+      </c>
+      <c r="F8">
+        <v>0.76972837448120102</v>
+      </c>
+      <c r="G8">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I8">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.86888888888888804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5083047578154901E-13</v>
+      </c>
+      <c r="F9">
+        <v>4.9805492401122997</v>
+      </c>
+      <c r="G9">
+        <v>3.2242424242424302E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I9">
+        <v>6.4333333333333395E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.84388888888888802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1561.6666666666599</v>
+      </c>
+      <c r="F10">
+        <v>7.4189949035644506E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.50004040404040395</v>
+      </c>
+      <c r="H10">
+        <v>-6.08695652173913E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.50066666666666604</v>
+      </c>
+      <c r="J10">
+        <v>-0.32166666666666599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.26205320874814E-7</v>
+      </c>
+      <c r="F11">
+        <v>2.8582922458648601</v>
+      </c>
+      <c r="G11">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I11">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J11">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.2620527893676499E-7</v>
+      </c>
+      <c r="F12">
+        <v>10.355468606948801</v>
+      </c>
+      <c r="G12">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="I12">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="J12">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>463.54710537812798</v>
+      </c>
+      <c r="F13">
+        <v>8.6019802093505807E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.42042228212039501</v>
+      </c>
+      <c r="H13">
+        <v>-0.374248566383723</v>
+      </c>
+      <c r="I13">
+        <v>0.41994301994301902</v>
+      </c>
+      <c r="J13">
+        <v>-0.45941176470588202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.90425453183706E-12</v>
+      </c>
+      <c r="F14">
+        <v>1.7797363758087099</v>
+      </c>
+      <c r="G14">
+        <v>2.3714036617262901E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.94907442052544</v>
+      </c>
+      <c r="I14">
+        <v>3.4597594819611999E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.91270159093385494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>12.463001871109</v>
+      </c>
+      <c r="G15">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="I15">
+        <v>4.3108233117483803E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.88770159093385603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1936</v>
+      </c>
+      <c r="F16">
+        <v>0.16604876518249501</v>
+      </c>
+      <c r="G16">
+        <v>0.46553908747457101</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.46586493987048999</v>
+      </c>
+      <c r="J16">
+        <v>-0.13100141658493999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-2.66453525910037E-14</v>
+      </c>
+      <c r="F17">
+        <v>0.76972837448120102</v>
+      </c>
+      <c r="G17">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I17">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.86888888888888804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.5083047578154901E-13</v>
+      </c>
+      <c r="F18">
+        <v>4.9805492401122997</v>
+      </c>
+      <c r="G18">
+        <v>3.2242424242424302E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="I18">
+        <v>6.4333333333333395E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.84388888888888802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1561.6666666666599</v>
+      </c>
+      <c r="F19">
+        <v>7.4189949035644506E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.50004040404040395</v>
+      </c>
+      <c r="H19">
+        <v>-6.08695652173913E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.50066666666666604</v>
+      </c>
+      <c r="J19">
+        <v>-0.32166666666666599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>43.7150040925683</v>
+      </c>
+      <c r="F20">
+        <v>576.32247157096799</v>
+      </c>
+      <c r="G20">
+        <v>0.13726640878753199</v>
+      </c>
+      <c r="H20">
+        <v>0.49080129583552501</v>
+      </c>
+      <c r="I20">
+        <v>0.172748056901282</v>
+      </c>
+      <c r="J20">
+        <v>0.34081923190736502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>43.745084062959798</v>
+      </c>
+      <c r="F21">
+        <v>1925.5378006696701</v>
+      </c>
+      <c r="G21">
+        <v>0.13728865078043101</v>
+      </c>
+      <c r="H21">
+        <v>0.49071932862234602</v>
+      </c>
+      <c r="I21">
+        <v>0.172748056901293</v>
+      </c>
+      <c r="J21">
+        <v>0.340819231907321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>620.08234328965102</v>
+      </c>
+      <c r="F22">
+        <v>0.56475827693939196</v>
+      </c>
+      <c r="G22">
+        <v>0.69120149428266198</v>
+      </c>
+      <c r="H22">
+        <v>-1.5638554153803801</v>
+      </c>
+      <c r="I22">
+        <v>0.69132104454685095</v>
+      </c>
+      <c r="J22">
+        <v>-1.6446045128706399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,6 +3411,555 @@
       </c>
       <c r="K15">
         <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD74597F-F024-4C49-ABCE-1CDF7BAB23E8}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>3600</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>54.556786346435501</v>
+      </c>
+      <c r="H1">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I1">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J1">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K1">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>132.45221333503699</v>
+      </c>
+      <c r="H2">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I2">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J2">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K2">
+        <v>7.8214285714285695E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>28.591520452499299</v>
+      </c>
+      <c r="H3">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="I3">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J3">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="K3">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3.57851595878601</v>
+      </c>
+      <c r="H4">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I4">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J4">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K4">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.0953152179718</v>
+      </c>
+      <c r="H5">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I5">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J5">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K5">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="G6">
+        <v>0.95193939208984302</v>
+      </c>
+      <c r="H6">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="I6">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J6">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="K6">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="G7">
+        <v>1.3271587371826099</v>
+      </c>
+      <c r="H7">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J7">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6.4893915176391603</v>
+      </c>
+      <c r="H8">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J8">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.2052306652069</v>
+      </c>
+      <c r="H9">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J9">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4.0340822219848604</v>
+      </c>
+      <c r="H10">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I10">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J10">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K10">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>9.3391804218292194</v>
+      </c>
+      <c r="H11">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I11">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J11">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K11">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.29504079818725</v>
+      </c>
+      <c r="H12">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="I12">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J12">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="K12">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5.40593378320427E-8</v>
+      </c>
+      <c r="G13">
+        <v>146.418625593185</v>
+      </c>
+      <c r="H13">
+        <v>0.169065852101422</v>
+      </c>
+      <c r="I13">
+        <v>0.37285137079231201</v>
+      </c>
+      <c r="J13">
+        <v>0.182334869431659</v>
+      </c>
+      <c r="K13">
+        <v>0.30306611623137703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="G14">
+        <v>890.94091820716801</v>
+      </c>
+      <c r="H14">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I14">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J14">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K14">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="G15">
+        <v>43.4575633287429</v>
+      </c>
+      <c r="H15">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="I15">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="J15">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="K15">
+        <v>0.30306611623143798</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +8710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462351F1-8094-EB44-85A8-8AB28DF3869E}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11598,7 +12969,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEA807-2873-DF43-A6C5-6AECA26F32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD416185-243F-1B43-95C9-6354A5C6AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="-2140" windowWidth="28800" windowHeight="15960" firstSheet="2" activeTab="10" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="33180" yWindow="-740" windowWidth="28800" windowHeight="15960" firstSheet="3" activeTab="11" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="linear" sheetId="11" r:id="rId9"/>
     <sheet name="cross_depth_2_linear_22_11" sheetId="13" r:id="rId10"/>
     <sheet name="constant_depth_2_22_11" sheetId="12" r:id="rId11"/>
-    <sheet name="constant_no_p_depth_2_10_12" sheetId="14" r:id="rId12"/>
+    <sheet name="linear_no_p_depth_2_11_12" sheetId="15" r:id="rId12"/>
+    <sheet name="constant_no_p_depth_2_10_12" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -55,10 +56,12 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
-    <definedName name="temp_res" localSheetId="11">constant_no_p_depth_2_10_12!$A$1:$K$12</definedName>
+    <definedName name="temp_res" localSheetId="12">constant_no_p_depth_2_10_12!$A$1:$K$12</definedName>
     <definedName name="temp_res" localSheetId="9">cross_depth_2_linear_22_11!$A$2:$J$10</definedName>
-    <definedName name="temp_res_1" localSheetId="11">constant_no_p_depth_2_10_12!$A$13:$K$15</definedName>
+    <definedName name="temp_res" localSheetId="11">linear_no_p_depth_2_11_12!$A$1:$K$9</definedName>
+    <definedName name="temp_res_1" localSheetId="12">constant_no_p_depth_2_10_12!$A$13:$K$15</definedName>
     <definedName name="temp_res_1" localSheetId="9">cross_depth_2_linear_22_11!$A$11:$J$22</definedName>
+    <definedName name="temp_res_1" localSheetId="11">linear_no_p_depth_2_11_12!$A$10:$K$15</definedName>
     <definedName name="temp_results" localSheetId="10">constant_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -693,7 +696,7 @@
     </textPr>
   </connection>
   <connection id="30" xr16:uid="{8746E04C-4322-5F4F-A356-100AFCCB1EB6}" name="temp_res2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -710,7 +713,7 @@
     </textPr>
   </connection>
   <connection id="31" xr16:uid="{23155430-14E2-C240-894A-BA2CFD7A7E75}" name="temp_res3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -726,7 +729,41 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="32" xr16:uid="{2F1A9F97-0F19-1140-BC39-82331D3159AA}" name="temp_res4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="33" xr16:uid="{8235457E-56E0-9947-B603-22AF2C77DBB8}" name="temp_res5" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="34" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
       <textFields count="11">
         <textField/>
@@ -747,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="46">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -953,43 +990,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,43 +1034,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,23 +1078,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="32" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="34" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="33" xr16:uid="{61EF5C0C-E3DE-0641-820D-206B7A318F42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="32" xr16:uid="{14D7AF6B-A864-164B-9FA6-924977FEC0B2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="30" xr16:uid="{BD91680A-A2F9-6B4B-BF9C-42D7CA8C7E76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="31" xr16:uid="{7ED7B6D2-6E9F-154D-B747-E4BC966E3F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="30" xr16:uid="{BD91680A-A2F9-6B4B-BF9C-42D7CA8C7E76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,11 +1114,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2139,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A2024-16A7-074F-9CDC-76F8E9FFD3D9}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2202,7 @@
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2188,11 +2233,8 @@
       <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2266,7 @@
         <v>0.28052287581699298</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>0.28052287581699298</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2288,7 +2330,7 @@
         <v>-0.45941176470588202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>0.91270159093385494</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2352,7 +2394,7 @@
         <v>0.88770159093385603</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>-0.13100141658493999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2458,7 @@
         <v>0.86888888888888804</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2490,7 @@
         <v>0.84388888888888802</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2522,7 @@
         <v>-0.32166666666666599</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2554,7 @@
         <v>0.28052287581699298</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2586,7 @@
         <v>0.28052287581699298</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2618,7 @@
         <v>-0.45941176470588202</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2608,7 +2650,7 @@
         <v>0.91270159093385494</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2640,7 +2682,7 @@
         <v>0.88770159093385603</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2873,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3419,6 +3461,556 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45983FD7-65D4-8744-9436-041DC16FA061}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>3600</v>
+      </c>
+      <c r="F1" s="2">
+        <v>-2.66453525910037E-14</v>
+      </c>
+      <c r="G1">
+        <v>1.25489959716796</v>
+      </c>
+      <c r="H1">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="I1">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="J1">
+        <v>4.8333333333333298E-2</v>
+      </c>
+      <c r="K1">
+        <v>0.86888888888888804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.5083047578154901E-13</v>
+      </c>
+      <c r="G2">
+        <v>8.1165547370910591</v>
+      </c>
+      <c r="H2">
+        <v>3.2242424242424302E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="J2">
+        <v>6.4333333333333395E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.84388888888888802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1.7763568394002401E-14</v>
+      </c>
+      <c r="G3">
+        <v>0.76014904975891096</v>
+      </c>
+      <c r="H3">
+        <v>3.2242424242424197E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.93166814551907695</v>
+      </c>
+      <c r="J3">
+        <v>7.2333333333333305E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.82166666666666599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.90425453183706E-12</v>
+      </c>
+      <c r="G4">
+        <v>2.6314452171325602</v>
+      </c>
+      <c r="H4">
+        <v>2.3714036617262901E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.94907442052544</v>
+      </c>
+      <c r="J4">
+        <v>3.4597594819611999E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.91270159093385494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>20.478638792037898</v>
+      </c>
+      <c r="H5">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="J5">
+        <v>4.3108233117483803E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.88770159093385603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.4481457710266099</v>
+      </c>
+      <c r="H6">
+        <v>2.3714036617262398E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.949074420525442</v>
+      </c>
+      <c r="J6">
+        <v>3.4597594819611402E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.91270159093385606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.26205320874814E-7</v>
+      </c>
+      <c r="G7">
+        <v>4.5230913639068602</v>
+      </c>
+      <c r="H7">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="J7">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="K7">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.2620527893676499E-7</v>
+      </c>
+      <c r="G8">
+        <v>16.713494634628201</v>
+      </c>
+      <c r="H8">
+        <v>7.5768194070080799E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="J8">
+        <v>0.212393162393162</v>
+      </c>
+      <c r="K8">
+        <v>0.28052287581699298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.26205356401951E-7</v>
+      </c>
+      <c r="G9">
+        <v>1.6181699752807599</v>
+      </c>
+      <c r="H9">
+        <v>7.5768194070080896E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.75301558888960796</v>
+      </c>
+      <c r="J9">
+        <v>0.20868945868945801</v>
+      </c>
+      <c r="K9">
+        <v>0.29718954248365997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.3348791071177598E-8</v>
+      </c>
+      <c r="G10">
+        <v>223.78033442497201</v>
+      </c>
+      <c r="H10">
+        <v>0.137177440816001</v>
+      </c>
+      <c r="I10">
+        <v>0.49112916468798401</v>
+      </c>
+      <c r="J10">
+        <v>0.17354170769493299</v>
+      </c>
+      <c r="K10">
+        <v>0.33769423190736497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.3360951472618896E-8</v>
+      </c>
+      <c r="G11">
+        <v>1692.8790493726699</v>
+      </c>
+      <c r="H11">
+        <v>0.13717744081601799</v>
+      </c>
+      <c r="I11">
+        <v>0.49112916468792001</v>
+      </c>
+      <c r="J11">
+        <v>0.17354170769494401</v>
+      </c>
+      <c r="K11">
+        <v>0.33769423190732101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.3348677780821996E-8</v>
+      </c>
+      <c r="G12">
+        <v>289.57462074756597</v>
+      </c>
+      <c r="H12">
+        <v>0.137177440816001</v>
+      </c>
+      <c r="I12">
+        <v>0.49112916468798401</v>
+      </c>
+      <c r="J12">
+        <v>0.17354170769493299</v>
+      </c>
+      <c r="K12">
+        <v>0.33769423190736497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>-1.87777216272987</v>
+      </c>
+      <c r="G13">
+        <v>127.45835065841599</v>
+      </c>
+      <c r="H13">
+        <v>0.16599642629056399</v>
+      </c>
+      <c r="I13">
+        <v>0.43236979162345102</v>
+      </c>
+      <c r="J13">
+        <v>0.28048160173161302</v>
+      </c>
+      <c r="K13">
+        <v>4.35383597883231E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>-1.10022712713295</v>
+      </c>
+      <c r="G14">
+        <v>527.19847302436801</v>
+      </c>
+      <c r="H14">
+        <v>0.16735185411656001</v>
+      </c>
+      <c r="I14">
+        <v>0.42784625545819499</v>
+      </c>
+      <c r="J14">
+        <v>0.29122835497835498</v>
+      </c>
+      <c r="K14">
+        <v>4.8677248677248802E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>8.9686098654711E-2</v>
+      </c>
+      <c r="G15">
+        <v>71.936231851577702</v>
+      </c>
+      <c r="H15">
+        <v>0.169305844305844</v>
+      </c>
+      <c r="I15">
+        <v>0.42106271285375702</v>
+      </c>
+      <c r="J15">
+        <v>0.29373376623376601</v>
+      </c>
+      <c r="K15">
+        <v>-1.14550264550264E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD74597F-F024-4C49-ABCE-1CDF7BAB23E8}">
   <dimension ref="A1:K15"/>
   <sheetViews>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEA807-2873-DF43-A6C5-6AECA26F32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B12E43-B0EE-9546-96BF-71AD2169A26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="-2140" windowWidth="28800" windowHeight="15960" firstSheet="2" activeTab="10" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" firstSheet="2" activeTab="11" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="linear" sheetId="11" r:id="rId9"/>
     <sheet name="cross_depth_2_linear_22_11" sheetId="13" r:id="rId10"/>
     <sheet name="constant_depth_2_22_11" sheetId="12" r:id="rId11"/>
-    <sheet name="constant_no_p_depth_2_10_12" sheetId="14" r:id="rId12"/>
+    <sheet name="constant_depth_2_24_01" sheetId="15" r:id="rId12"/>
+    <sheet name="constant_no_p_depth_2_10_12" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
@@ -55,9 +56,10 @@
     <definedName name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" localSheetId="6">Sheet2!$A$5:$P$5</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" localSheetId="6">Sheet2!$A$6:$P$6</definedName>
     <definedName name="spect_enc_reg.csv_FlowORT_d_3_t_3600" localSheetId="6">Sheet2!$A$7:$P$7</definedName>
-    <definedName name="temp_res" localSheetId="11">constant_no_p_depth_2_10_12!$A$1:$K$12</definedName>
+    <definedName name="temp_res" localSheetId="12">constant_no_p_depth_2_10_12!$A$1:$K$12</definedName>
     <definedName name="temp_res" localSheetId="9">cross_depth_2_linear_22_11!$A$2:$J$10</definedName>
-    <definedName name="temp_res_1" localSheetId="11">constant_no_p_depth_2_10_12!$A$13:$K$15</definedName>
+    <definedName name="temp_res_1" localSheetId="11">constant_depth_2_24_01!$A$2:$J$26</definedName>
+    <definedName name="temp_res_1" localSheetId="12">constant_no_p_depth_2_10_12!$A$13:$K$15</definedName>
     <definedName name="temp_res_1" localSheetId="9">cross_depth_2_linear_22_11!$A$11:$J$22</definedName>
     <definedName name="temp_results" localSheetId="10">constant_depth_2_22_11!$A$1:$K$15</definedName>
   </definedNames>
@@ -693,7 +695,7 @@
     </textPr>
   </connection>
   <connection id="30" xr16:uid="{8746E04C-4322-5F4F-A356-100AFCCB1EB6}" name="temp_res2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -710,7 +712,7 @@
     </textPr>
   </connection>
   <connection id="31" xr16:uid="{23155430-14E2-C240-894A-BA2CFD7A7E75}" name="temp_res3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -726,7 +728,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="32" xr16:uid="{EC15D10A-B3B5-E748-A603-228D7EC05D94}" name="temp_res4" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_res.csv" comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="33" xr16:uid="{7CF927FC-B669-D045-A3C4-1FA74EB483B9}" name="temp_results" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/temp_results.csv" comma="1">
       <textFields count="11">
         <textField/>
@@ -747,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="50">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -886,6 +905,18 @@
   <si>
     <t>optimum not reached</t>
   </si>
+  <si>
+    <t>FlowORT_no_pi</t>
+  </si>
+  <si>
+    <t>FlowOCT_no_p</t>
+  </si>
+  <si>
+    <t>BenderOCT_with_p</t>
+  </si>
+  <si>
+    <t>FlowORT_with_pi</t>
+  </si>
 </sst>
 </file>
 
@@ -953,43 +984,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_5" connectionId="12" xr16:uid="{CB98D55C-D6DF-E649-822D-E63DC83E1D42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_d_2_t_3600" connectionId="3" xr16:uid="{6237A658-0D88-C04E-9253-31BD2012D254}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast" connectionId="4" xr16:uid="{985F4DCF-B91E-314B-BDC8-4AC7F2582CCF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_3" connectionId="10" xr16:uid="{D2E16F0A-95F7-9242-AE28-1EA359F43D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowOCT_d_2_t_3600" connectionId="1" xr16:uid="{B946C766-30D3-C846-A04D-5245C750CE23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="27" xr16:uid="{673DCFE2-4076-C846-B82F-2C53944C42EE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="26" xr16:uid="{7B59E847-3C4C-B644-A757-27109FB9DF33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,43 +1028,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="25" xr16:uid="{9EEAD03F-60CF-B34F-919F-D03E5E1E0CFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_4" connectionId="11" xr16:uid="{7FEF2AED-2F77-664A-B0CD-D5C178F8BEA4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_1" connectionId="8" xr16:uid="{9FB1F224-9D5B-7C44-83C5-6E93FDAD0A77}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowOCT_d_3_t_3600" connectionId="5" xr16:uid="{BD3C7D21-EF93-E349-8433-D7EBE7D7FDD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_2" connectionId="15" xr16:uid="{48558A22-44C8-AE43-981F-2360A0673087}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_1" connectionId="14" xr16:uid="{639FACA6-D3F9-614C-BB6A-11F03AB6A17D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results" connectionId="13" xr16:uid="{3FD3F7C7-0525-F240-8DFA-B1DE62A01703}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="spect_enc_reg.csv__d_2_t_3600_cross_validation_1" connectionId="24" xr16:uid="{46294912-3C82-6641-88B6-2995A06120DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cross_val_results_3" connectionId="16" xr16:uid="{5A2F2D8D-7AC6-0B4B-AFCF-2FF3220DE045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="29" xr16:uid="{29C8D07D-C46D-904E-BF85-75FD8882F429}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="28" xr16:uid="{A19BA4E0-E1BF-CE46-A285-77C846ABD3E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,23 +1072,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="32" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_results" connectionId="33" xr16:uid="{62522A0A-ADEA-5846-82A3-FF6DB303088C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="31" xr16:uid="{7ED7B6D2-6E9F-154D-B747-E4BC966E3F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="32" xr16:uid="{15165681-29DF-DC48-9BD3-2A4083111F6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res" connectionId="30" xr16:uid="{BD91680A-A2F9-6B4B-BF9C-42D7CA8C7E76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp_res_1" connectionId="31" xr16:uid="{7ED7B6D2-6E9F-154D-B747-E4BC966E3F09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4_1" connectionId="22" xr16:uid="{5724890A-2D58-8745-9BF2-6D1057180765}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v4" connectionId="21" xr16:uid="{52677210-1B18-234D-BF83-FD4B2CB96AE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,11 +1104,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="balance-scale_enc_reg.csv_FlowORT_binary_d_2_t_3600" connectionId="2" xr16:uid="{B46DF70E-B97E-0B4E-8FB1-905AE9D463AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_d_3_t_3600" connectionId="7" xr16:uid="{1EE8318B-2436-1247-B608-495F71CB272A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast_2" connectionId="9" xr16:uid="{2CFF5865-725C-F74C-9EF3-269137AEE282}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="breast-cancer_enc_reg.csv_FlowORT_binary_d_3_t_3600" connectionId="6" xr16:uid="{3F77064E-022A-AD44-B1ED-C21B5CE5C133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2142,7 +2177,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2873,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A26B63-C6E3-4E4A-8DC6-595C132B0E10}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3419,6 +3454,862 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D835D3-419A-5E4A-BD2A-B8C79B0F1414}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.94220089912414</v>
+      </c>
+      <c r="G2">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H2">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I2">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J2">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>16.986187982559201</v>
+      </c>
+      <c r="G3">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H3">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I3">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J3">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="F4">
+        <v>1.93778362274169</v>
+      </c>
+      <c r="G4">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H4">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I4">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J4">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.3684757858670001E-15</v>
+      </c>
+      <c r="F5">
+        <v>1.4546263217926001</v>
+      </c>
+      <c r="G5">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H5">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I5">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J5">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5.9842182159423798</v>
+      </c>
+      <c r="G6">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H6">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I6">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="J6">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.0903663065151405E-14</v>
+      </c>
+      <c r="F7">
+        <v>1.38188371658325</v>
+      </c>
+      <c r="G7">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I7">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>11.738707304000799</v>
+      </c>
+      <c r="G8">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I8">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.0843310356140101</v>
+      </c>
+      <c r="G9">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I9">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.2685107707977199</v>
+      </c>
+      <c r="G10">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I10">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="F11">
+        <v>3.6613857746124201</v>
+      </c>
+      <c r="G11">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I11">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.6438089013338397E-15</v>
+      </c>
+      <c r="F12">
+        <v>1.89421243667602</v>
+      </c>
+      <c r="G12">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H12">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I12">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J12">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>16.306273031234699</v>
+      </c>
+      <c r="G13">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H13">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I13">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J13">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.6319806098937899</v>
+      </c>
+      <c r="G14">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H14">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I14">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J14">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.1944751322675395E-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2396718502044601</v>
+      </c>
+      <c r="G15">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H15">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I15">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J15">
+        <v>1.90849673202611E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.7752154350280698</v>
+      </c>
+      <c r="G16">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H16">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I16">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="J16">
+        <v>1.9084967320261399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0179612255175301E-12</v>
+      </c>
+      <c r="F17">
+        <v>37.570542287826498</v>
+      </c>
+      <c r="G17">
+        <v>0.22023154376095699</v>
+      </c>
+      <c r="H17">
+        <v>0.246868753137401</v>
+      </c>
+      <c r="I17">
+        <v>0.270844155844155</v>
+      </c>
+      <c r="J17">
+        <v>6.7103174603174595E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>265.53758797645497</v>
+      </c>
+      <c r="G18">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H18">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I18">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J18">
+        <v>7.8214285714285695E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>56.486827516555699</v>
+      </c>
+      <c r="G19">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H19">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I19">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J19">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>47.448310613632202</v>
+      </c>
+      <c r="G20">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H20">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I20">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="J20">
+        <v>9.5674603174603204E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>96.306328535079899</v>
+      </c>
+      <c r="G21">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H21">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I21">
+        <v>0.26720779220779201</v>
+      </c>
+      <c r="J21">
+        <v>8.0119047619047604E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.4056017612178299E-8</v>
+      </c>
+      <c r="F22">
+        <v>98.421966218948299</v>
+      </c>
+      <c r="G22">
+        <v>0.169065852101417</v>
+      </c>
+      <c r="H22">
+        <v>0.37285137079233199</v>
+      </c>
+      <c r="I22">
+        <v>0.18233486943164401</v>
+      </c>
+      <c r="J22">
+        <v>0.30306611623143498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="F23">
+        <v>1192.27548606395</v>
+      </c>
+      <c r="G23">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="H23">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="I23">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="J23">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="F24">
+        <v>57.249419093131998</v>
+      </c>
+      <c r="G24">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="H24">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="I24">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="J24">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.4054054209764698E-8</v>
+      </c>
+      <c r="F25">
+        <v>35.9111016750335</v>
+      </c>
+      <c r="G25">
+        <v>0.16906585210141301</v>
+      </c>
+      <c r="H25">
+        <v>0.37285137079234398</v>
+      </c>
+      <c r="I25">
+        <v>0.18233486943164301</v>
+      </c>
+      <c r="J25">
+        <v>0.30306611623143798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5.40593378320427E-8</v>
+      </c>
+      <c r="F26">
+        <v>185.77012469768499</v>
+      </c>
+      <c r="G26">
+        <v>0.169065852101422</v>
+      </c>
+      <c r="H26">
+        <v>0.37285137079231201</v>
+      </c>
+      <c r="I26">
+        <v>0.182334869431659</v>
+      </c>
+      <c r="J26">
+        <v>0.30306611623137703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD74597F-F024-4C49-ABCE-1CDF7BAB23E8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
